--- a/Data_file/ob_stockFG10/RM01-Cost.xlsx
+++ b/Data_file/ob_stockFG10/RM01-Cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="636" windowWidth="19572" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="636" windowWidth="19572" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="493">
   <si>
     <t>partner_id</t>
   </si>
@@ -1508,9 +1508,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1577,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1585,7 +1587,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1598,6 +1599,13 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="จุลภาค" xfId="1" builtinId="3"/>
@@ -1903,16 +1911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="18" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="25.21875" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
@@ -1922,13 +1930,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1951,103 +1959,159 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45747</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5">
-        <f t="shared" ref="D2:D4" si="0">B2</f>
-        <v>45747</v>
-      </c>
-      <c r="E2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1846.8784800000001</v>
-      </c>
-      <c r="J2" s="14">
-        <v>454</v>
+      <c r="A2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="23">
+        <v>45737</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="23">
+        <v>45737</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="22">
+        <v>35</v>
+      </c>
+      <c r="I2" s="25">
+        <v>3925.1673028571399</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45747</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <f t="shared" si="0"/>
-        <v>45747</v>
-      </c>
-      <c r="E3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1964.36068</v>
-      </c>
-      <c r="J3" s="14">
-        <v>457</v>
+      <c r="A3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="23">
+        <v>45737</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23">
+        <v>45737</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45747</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5">
-        <f t="shared" si="0"/>
-        <v>45747</v>
-      </c>
-      <c r="E4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4">
-        <v>68</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1073.2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>472</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16"/>
+      <c r="D16"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2059,8 +2123,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="M461" sqref="M461"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A480" sqref="A317:J480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2071,8 +2135,8 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
@@ -2100,10 +2164,10 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2133,10 +2197,10 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>943.58668</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2166,10 +2230,10 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1.52</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2199,10 +2263,10 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>17.99015</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2232,10 +2296,10 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2265,10 +2329,10 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>8.6207799999999999</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2298,10 +2362,10 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>107</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2331,10 +2395,10 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>1760.4537499999999</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2364,10 +2428,10 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>70.575050000000005</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>8</v>
       </c>
     </row>
@@ -2397,10 +2461,10 @@
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>753.41989999999998</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2430,10 +2494,10 @@
       <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>1177.6320720000001</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2463,10 +2527,10 @@
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>2340.37012</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2496,10 +2560,10 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>966.19690000000003</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>12</v>
       </c>
     </row>
@@ -2529,10 +2593,10 @@
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>745.95500000000004</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>13</v>
       </c>
     </row>
@@ -2562,10 +2626,10 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>255.59379999999999</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>14</v>
       </c>
     </row>
@@ -2595,10 +2659,10 @@
       <c r="H16">
         <v>6</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>5.6919666666666702</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>15</v>
       </c>
     </row>
@@ -2628,10 +2692,10 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>79.747200000000007</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2661,10 +2725,10 @@
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>18.97945</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>17</v>
       </c>
     </row>
@@ -2694,10 +2758,10 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>182.33459999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2727,10 +2791,10 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>8.8167500000000008</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2760,10 +2824,10 @@
       <c r="H21">
         <v>50</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>837.84460999999999</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2793,10 +2857,10 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>142.83539999999999</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2826,10 +2890,10 @@
       <c r="H23">
         <v>2</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>447.38524999999998</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2859,10 +2923,10 @@
       <c r="H24">
         <v>32</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>123</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2892,10 +2956,10 @@
       <c r="H25">
         <v>8</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>123</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>24</v>
       </c>
     </row>
@@ -2925,10 +2989,10 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>27.0793</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2958,10 +3022,10 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>27.328600000000002</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>26</v>
       </c>
     </row>
@@ -2991,10 +3055,10 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>38.452500000000001</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>27</v>
       </c>
     </row>
@@ -3024,10 +3088,10 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>140.90600000000001</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>28</v>
       </c>
     </row>
@@ -3057,10 +3121,10 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>98.614400000000003</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="13">
         <v>29</v>
       </c>
     </row>
@@ -3090,10 +3154,10 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>46.126600000000003</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>30</v>
       </c>
     </row>
@@ -3123,10 +3187,10 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>20.858000000000001</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>31</v>
       </c>
     </row>
@@ -3156,10 +3220,10 @@
       <c r="H33">
         <v>4</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>144.064875</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>32</v>
       </c>
     </row>
@@ -3189,10 +3253,10 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>212.8</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="13">
         <v>33</v>
       </c>
     </row>
@@ -3222,10 +3286,10 @@
       <c r="H35">
         <v>5</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>3552.6018800000002</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="13">
         <v>34</v>
       </c>
     </row>
@@ -3255,10 +3319,10 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>5267.3972000000003</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
         <v>35</v>
       </c>
     </row>
@@ -3288,10 +3352,10 @@
       <c r="H37">
         <v>2</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>5535.808</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3321,10 +3385,10 @@
       <c r="H38">
         <v>5</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>1033.5491</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>37</v>
       </c>
     </row>
@@ -3354,10 +3418,10 @@
       <c r="H39">
         <v>8</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>3297.6931625000002</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>38</v>
       </c>
     </row>
@@ -3387,10 +3451,10 @@
       <c r="H40">
         <v>8</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>3395.8585374999998</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>39</v>
       </c>
     </row>
@@ -3420,10 +3484,10 @@
       <c r="H41">
         <v>4</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>4969.082375</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>40</v>
       </c>
     </row>
@@ -3453,10 +3517,10 @@
       <c r="H42">
         <v>10</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>2119.2570700000001</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>41</v>
       </c>
     </row>
@@ -3486,10 +3550,10 @@
       <c r="H43">
         <v>50</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>1253.975594</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>42</v>
       </c>
     </row>
@@ -3519,10 +3583,10 @@
       <c r="H44">
         <v>3</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>969.70386666666695</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <v>43</v>
       </c>
     </row>
@@ -3552,10 +3616,10 @@
       <c r="H45">
         <v>3</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>2885.2121000000002</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <v>44</v>
       </c>
     </row>
@@ -3585,10 +3649,10 @@
       <c r="H46">
         <v>5</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>1896.39292</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="13">
         <v>45</v>
       </c>
     </row>
@@ -3618,10 +3682,10 @@
       <c r="H47">
         <v>3</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>3972.11533333333</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <v>46</v>
       </c>
     </row>
@@ -3651,10 +3715,10 @@
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>2017.5764999999999</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <v>47</v>
       </c>
     </row>
@@ -3684,76 +3748,76 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>1509.0732</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="16">
+      <c r="A50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="15">
         <v>45723</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="16">
+      <c r="C50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="15">
         <f t="shared" si="0"/>
         <v>45723</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F50" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G50" s="11" t="s">
+      <c r="F50" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H50" s="11">
-        <v>1</v>
-      </c>
-      <c r="I50" s="12">
+      <c r="H50" s="10">
+        <v>1</v>
+      </c>
+      <c r="I50" s="11">
         <v>2628.2231999999999</v>
       </c>
-      <c r="J50" s="18">
+      <c r="J50" s="17">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="16">
+      <c r="A51" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="15">
         <v>45723</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="16">
+      <c r="C51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="15">
         <f t="shared" si="0"/>
         <v>45723</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G51" s="11" t="s">
+      <c r="F51" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H51" s="11">
-        <v>1</v>
-      </c>
-      <c r="I51" s="12">
+      <c r="H51" s="10">
+        <v>1</v>
+      </c>
+      <c r="I51" s="11">
         <v>2305.3148000000001</v>
       </c>
-      <c r="J51" s="18">
+      <c r="J51" s="17">
         <v>50</v>
       </c>
     </row>
@@ -3783,10 +3847,10 @@
       <c r="H52">
         <v>1</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>2625.9974999999999</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <v>51</v>
       </c>
     </row>
@@ -3816,10 +3880,10 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>489.64580000000001</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <v>52</v>
       </c>
     </row>
@@ -3849,10 +3913,10 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>3672.7048</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>53</v>
       </c>
     </row>
@@ -3882,10 +3946,10 @@
       <c r="H55">
         <v>1</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>1722.4708000000001</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <v>54</v>
       </c>
     </row>
@@ -3915,10 +3979,10 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>2286.2359000000001</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <v>55</v>
       </c>
     </row>
@@ -3948,10 +4012,10 @@
       <c r="H57">
         <v>1</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>2418.9222</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <v>56</v>
       </c>
     </row>
@@ -3981,43 +4045,43 @@
       <c r="H58">
         <v>1</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>3368.2202000000002</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A59" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="16">
+      <c r="A59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="15">
         <v>45723</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="16">
+      <c r="C59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="15">
         <f t="shared" si="0"/>
         <v>45723</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G59" s="11" t="s">
+      <c r="F59" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="11">
-        <v>1</v>
-      </c>
-      <c r="I59" s="12">
+      <c r="H59" s="10">
+        <v>1</v>
+      </c>
+      <c r="I59" s="11">
         <v>1646.1306</v>
       </c>
-      <c r="J59" s="18">
+      <c r="J59" s="17">
         <v>58</v>
       </c>
     </row>
@@ -4047,10 +4111,10 @@
       <c r="H60">
         <v>2</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>1553.8249000000001</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <v>59</v>
       </c>
     </row>
@@ -4080,10 +4144,10 @@
       <c r="H61">
         <v>1</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>333.15019999999998</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <v>60</v>
       </c>
     </row>
@@ -4113,10 +4177,10 @@
       <c r="H62">
         <v>1</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>1837.4789000000001</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <v>61</v>
       </c>
     </row>
@@ -4146,10 +4210,10 @@
       <c r="H63">
         <v>1</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>1039.1159</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <v>62</v>
       </c>
     </row>
@@ -4179,10 +4243,10 @@
       <c r="H64">
         <v>1</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>1020.472</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <v>63</v>
       </c>
     </row>
@@ -4212,10 +4276,10 @@
       <c r="H65">
         <v>1</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>1044.3208999999999</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <v>64</v>
       </c>
     </row>
@@ -4245,43 +4309,43 @@
       <c r="H66">
         <v>1</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>478.70100000000002</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A67" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="16">
+      <c r="A67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="15">
         <v>45723</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="16">
+      <c r="C67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="15">
         <f t="shared" si="1"/>
         <v>45723</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="F67" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G67" s="11" t="s">
+      <c r="F67" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H67" s="11">
-        <v>1</v>
-      </c>
-      <c r="I67" s="12">
+      <c r="H67" s="10">
+        <v>1</v>
+      </c>
+      <c r="I67" s="11">
         <v>1360.2695000000001</v>
       </c>
-      <c r="J67" s="18">
+      <c r="J67" s="17">
         <v>66</v>
       </c>
     </row>
@@ -4311,10 +4375,10 @@
       <c r="H68">
         <v>1</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>406.87720000000002</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <v>67</v>
       </c>
     </row>
@@ -4344,10 +4408,10 @@
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>1149.3476000000001</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <v>68</v>
       </c>
     </row>
@@ -4377,10 +4441,10 @@
       <c r="H70">
         <v>2</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>6.5</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>69</v>
       </c>
     </row>
@@ -4410,10 +4474,10 @@
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>97.852400000000003</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="13">
         <v>70</v>
       </c>
     </row>
@@ -4443,10 +4507,10 @@
       <c r="H72">
         <v>6</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>18.654516666666701</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <v>71</v>
       </c>
     </row>
@@ -4476,10 +4540,10 @@
       <c r="H73">
         <v>8</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <v>97.573599999999999</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="13">
         <v>72</v>
       </c>
     </row>
@@ -4509,10 +4573,10 @@
       <c r="H74">
         <v>4</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>195.14709999999999</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="13">
         <v>73</v>
       </c>
     </row>
@@ -4542,10 +4606,10 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <v>36.225000000000001</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="13">
         <v>74</v>
       </c>
     </row>
@@ -4575,10 +4639,10 @@
       <c r="H76">
         <v>5</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="7">
         <v>37.162080000000003</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="13">
         <v>75</v>
       </c>
     </row>
@@ -4608,10 +4672,10 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="7">
         <v>41.6584</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="13">
         <v>76</v>
       </c>
     </row>
@@ -4641,10 +4705,10 @@
       <c r="H78">
         <v>1</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="7">
         <v>487.10719999999998</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="13">
         <v>77</v>
       </c>
     </row>
@@ -4674,10 +4738,10 @@
       <c r="H79">
         <v>1</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="7">
         <v>406.76859999999999</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="13">
         <v>78</v>
       </c>
     </row>
@@ -4707,10 +4771,10 @@
       <c r="H80">
         <v>1</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="7">
         <v>70.575100000000006</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="13">
         <v>79</v>
       </c>
     </row>
@@ -4740,10 +4804,10 @@
       <c r="H81">
         <v>1</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="7">
         <v>99.1357</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="13">
         <v>80</v>
       </c>
     </row>
@@ -4773,10 +4837,10 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="7">
         <v>225.3563</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="13">
         <v>81</v>
       </c>
     </row>
@@ -4806,10 +4870,10 @@
       <c r="H83">
         <v>1</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="7">
         <v>258.3732</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="13">
         <v>82</v>
       </c>
     </row>
@@ -4839,10 +4903,10 @@
       <c r="H84">
         <v>7</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="7">
         <v>155.007785714286</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="13">
         <v>83</v>
       </c>
     </row>
@@ -4872,10 +4936,10 @@
       <c r="H85">
         <v>7</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="7">
         <v>106.36244285714299</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="13">
         <v>84</v>
       </c>
     </row>
@@ -4905,10 +4969,10 @@
       <c r="H86">
         <v>1</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="7">
         <v>219.8263</v>
       </c>
-      <c r="J86" s="14">
+      <c r="J86" s="13">
         <v>85</v>
       </c>
     </row>
@@ -4938,10 +5002,10 @@
       <c r="H87">
         <v>1</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="7">
         <v>384.94779999999997</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="13">
         <v>86</v>
       </c>
     </row>
@@ -4971,10 +5035,10 @@
       <c r="H88">
         <v>1</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="7">
         <v>193.66220000000001</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J88" s="13">
         <v>87</v>
       </c>
     </row>
@@ -5004,10 +5068,10 @@
       <c r="H89">
         <v>1</v>
       </c>
-      <c r="I89" s="8">
+      <c r="I89" s="7">
         <v>472.41199999999998</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="13">
         <v>88</v>
       </c>
     </row>
@@ -5037,10 +5101,10 @@
       <c r="H90">
         <v>1</v>
       </c>
-      <c r="I90" s="8">
+      <c r="I90" s="7">
         <v>88.228700000000003</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="13">
         <v>89</v>
       </c>
     </row>
@@ -5070,10 +5134,10 @@
       <c r="H91">
         <v>1</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="7">
         <v>63.658299999999997</v>
       </c>
-      <c r="J91" s="14">
+      <c r="J91" s="13">
         <v>90</v>
       </c>
     </row>
@@ -5103,10 +5167,10 @@
       <c r="H92">
         <v>1</v>
       </c>
-      <c r="I92" s="8">
+      <c r="I92" s="7">
         <v>18.483699999999999</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="13">
         <v>91</v>
       </c>
     </row>
@@ -5136,10 +5200,10 @@
       <c r="H93">
         <v>6</v>
       </c>
-      <c r="I93" s="8">
+      <c r="I93" s="7">
         <v>8.8562333333333303</v>
       </c>
-      <c r="J93" s="14">
+      <c r="J93" s="13">
         <v>92</v>
       </c>
     </row>
@@ -5169,10 +5233,10 @@
       <c r="H94">
         <v>2</v>
       </c>
-      <c r="I94" s="8">
+      <c r="I94" s="7">
         <v>1174.6005500000001</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J94" s="13">
         <v>93</v>
       </c>
     </row>
@@ -5202,10 +5266,10 @@
       <c r="H95">
         <v>1</v>
       </c>
-      <c r="I95" s="8">
+      <c r="I95" s="7">
         <v>235.8</v>
       </c>
-      <c r="J95" s="14">
+      <c r="J95" s="13">
         <v>94</v>
       </c>
     </row>
@@ -5235,10 +5299,10 @@
       <c r="H96">
         <v>1</v>
       </c>
-      <c r="I96" s="8">
+      <c r="I96" s="7">
         <v>1801.1570999999999</v>
       </c>
-      <c r="J96" s="14">
+      <c r="J96" s="13">
         <v>95</v>
       </c>
     </row>
@@ -5268,10 +5332,10 @@
       <c r="H97">
         <v>1</v>
       </c>
-      <c r="I97" s="8">
+      <c r="I97" s="7">
         <v>2576.5520000000001</v>
       </c>
-      <c r="J97" s="14">
+      <c r="J97" s="13">
         <v>96</v>
       </c>
     </row>
@@ -5301,10 +5365,10 @@
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="I98" s="8">
+      <c r="I98" s="7">
         <v>70.575100000000006</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="13">
         <v>97</v>
       </c>
     </row>
@@ -5334,10 +5398,10 @@
       <c r="H99">
         <v>1</v>
       </c>
-      <c r="I99" s="8">
+      <c r="I99" s="7">
         <v>70.575100000000006</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="13">
         <v>98</v>
       </c>
     </row>
@@ -5367,10 +5431,10 @@
       <c r="H100">
         <v>10</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="7">
         <v>428.71066000000002</v>
       </c>
-      <c r="J100" s="14">
+      <c r="J100" s="13">
         <v>99</v>
       </c>
     </row>
@@ -5400,10 +5464,10 @@
       <c r="H101">
         <v>1</v>
       </c>
-      <c r="I101" s="8">
+      <c r="I101" s="7">
         <v>298.06</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J101" s="13">
         <v>100</v>
       </c>
     </row>
@@ -5433,10 +5497,10 @@
       <c r="H102">
         <v>1</v>
       </c>
-      <c r="I102" s="8">
+      <c r="I102" s="7">
         <v>187</v>
       </c>
-      <c r="J102" s="14">
+      <c r="J102" s="13">
         <v>101</v>
       </c>
     </row>
@@ -5466,10 +5530,10 @@
       <c r="H103">
         <v>30</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="7">
         <v>1177.5632599999999</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="13">
         <v>102</v>
       </c>
     </row>
@@ -5499,10 +5563,10 @@
       <c r="H104">
         <v>12</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="7">
         <v>610.41470000000004</v>
       </c>
-      <c r="J104" s="14">
+      <c r="J104" s="13">
         <v>103</v>
       </c>
     </row>
@@ -5532,10 +5596,10 @@
       <c r="H105">
         <v>5</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="7">
         <v>1020</v>
       </c>
-      <c r="J105" s="14">
+      <c r="J105" s="13">
         <v>104</v>
       </c>
     </row>
@@ -5565,10 +5629,10 @@
       <c r="H106">
         <v>3</v>
       </c>
-      <c r="I106" s="8">
+      <c r="I106" s="7">
         <v>1220</v>
       </c>
-      <c r="J106" s="14">
+      <c r="J106" s="13">
         <v>105</v>
       </c>
     </row>
@@ -5598,10 +5662,10 @@
       <c r="H107">
         <v>5</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="7">
         <v>2012.82294</v>
       </c>
-      <c r="J107" s="14">
+      <c r="J107" s="13">
         <v>106</v>
       </c>
     </row>
@@ -5631,10 +5695,10 @@
       <c r="H108">
         <v>1</v>
       </c>
-      <c r="I108" s="8">
+      <c r="I108" s="7">
         <v>3094.1523000000002</v>
       </c>
-      <c r="J108" s="14">
+      <c r="J108" s="13">
         <v>107</v>
       </c>
     </row>
@@ -5664,10 +5728,10 @@
       <c r="H109">
         <v>1</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="7">
         <v>4059.2930000000001</v>
       </c>
-      <c r="J109" s="14">
+      <c r="J109" s="13">
         <v>108</v>
       </c>
     </row>
@@ -5697,10 +5761,10 @@
       <c r="H110">
         <v>2</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I110" s="7">
         <v>300.23365000000001</v>
       </c>
-      <c r="J110" s="14">
+      <c r="J110" s="13">
         <v>109</v>
       </c>
     </row>
@@ -5730,10 +5794,10 @@
       <c r="H111">
         <v>1</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="7">
         <v>1878.9703</v>
       </c>
-      <c r="J111" s="14">
+      <c r="J111" s="13">
         <v>110</v>
       </c>
     </row>
@@ -5763,10 +5827,10 @@
       <c r="H112">
         <v>1</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="7">
         <v>538.00850000000003</v>
       </c>
-      <c r="J112" s="14">
+      <c r="J112" s="13">
         <v>111</v>
       </c>
     </row>
@@ -5796,10 +5860,10 @@
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="7">
         <v>574.32299999999998</v>
       </c>
-      <c r="J113" s="14">
+      <c r="J113" s="13">
         <v>112</v>
       </c>
     </row>
@@ -5829,10 +5893,10 @@
       <c r="H114">
         <v>1</v>
       </c>
-      <c r="I114" s="8">
+      <c r="I114" s="7">
         <v>439.47890000000001</v>
       </c>
-      <c r="J114" s="14">
+      <c r="J114" s="13">
         <v>113</v>
       </c>
     </row>
@@ -5862,10 +5926,10 @@
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115" s="8">
+      <c r="I115" s="7">
         <v>468.72129999999999</v>
       </c>
-      <c r="J115" s="14">
+      <c r="J115" s="13">
         <v>114</v>
       </c>
     </row>
@@ -5895,10 +5959,10 @@
       <c r="H116">
         <v>1</v>
       </c>
-      <c r="I116" s="8">
+      <c r="I116" s="7">
         <v>335.4529</v>
       </c>
-      <c r="J116" s="14">
+      <c r="J116" s="13">
         <v>115</v>
       </c>
     </row>
@@ -5928,10 +5992,10 @@
       <c r="H117">
         <v>1</v>
       </c>
-      <c r="I117" s="8">
+      <c r="I117" s="7">
         <v>312.81360000000001</v>
       </c>
-      <c r="J117" s="14">
+      <c r="J117" s="13">
         <v>116</v>
       </c>
     </row>
@@ -5961,10 +6025,10 @@
       <c r="H118">
         <v>1</v>
       </c>
-      <c r="I118" s="8">
+      <c r="I118" s="7">
         <v>384.24759999999998</v>
       </c>
-      <c r="J118" s="14">
+      <c r="J118" s="13">
         <v>117</v>
       </c>
     </row>
@@ -5994,10 +6058,10 @@
       <c r="H119">
         <v>1</v>
       </c>
-      <c r="I119" s="8">
+      <c r="I119" s="7">
         <v>683.19650000000001</v>
       </c>
-      <c r="J119" s="14">
+      <c r="J119" s="13">
         <v>118</v>
       </c>
     </row>
@@ -6027,10 +6091,10 @@
       <c r="H120">
         <v>1</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120" s="7">
         <v>2069.4911999999999</v>
       </c>
-      <c r="J120" s="14">
+      <c r="J120" s="13">
         <v>119</v>
       </c>
     </row>
@@ -6060,10 +6124,10 @@
       <c r="H121">
         <v>1</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I121" s="7">
         <v>254.80539999999999</v>
       </c>
-      <c r="J121" s="14">
+      <c r="J121" s="13">
         <v>120</v>
       </c>
     </row>
@@ -6093,10 +6157,10 @@
       <c r="H122">
         <v>1</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I122" s="7">
         <v>1153.6262999999999</v>
       </c>
-      <c r="J122" s="14">
+      <c r="J122" s="13">
         <v>121</v>
       </c>
     </row>
@@ -6126,10 +6190,10 @@
       <c r="H123">
         <v>1</v>
       </c>
-      <c r="I123" s="8">
+      <c r="I123" s="7">
         <v>521.57680000000005</v>
       </c>
-      <c r="J123" s="14">
+      <c r="J123" s="13">
         <v>122</v>
       </c>
     </row>
@@ -6159,10 +6223,10 @@
       <c r="H124">
         <v>1</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I124" s="7">
         <v>800.41780000000006</v>
       </c>
-      <c r="J124" s="14">
+      <c r="J124" s="13">
         <v>123</v>
       </c>
     </row>
@@ -6192,10 +6256,10 @@
       <c r="H125">
         <v>1</v>
       </c>
-      <c r="I125" s="8">
+      <c r="I125" s="7">
         <v>1319.8677</v>
       </c>
-      <c r="J125" s="14">
+      <c r="J125" s="13">
         <v>124</v>
       </c>
     </row>
@@ -6225,10 +6289,10 @@
       <c r="H126">
         <v>1</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I126" s="7">
         <v>1319.8677</v>
       </c>
-      <c r="J126" s="14">
+      <c r="J126" s="13">
         <v>125</v>
       </c>
     </row>
@@ -6258,175 +6322,175 @@
       <c r="H127">
         <v>30</v>
       </c>
-      <c r="I127" s="8">
+      <c r="I127" s="7">
         <v>0.98</v>
       </c>
-      <c r="J127" s="14">
+      <c r="J127" s="13">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A128" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="16">
+      <c r="A128" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="15">
         <v>45726</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="16">
+      <c r="C128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="15">
         <f t="shared" ref="D128:D191" si="2">B128</f>
         <v>45726</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F128" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G128" s="11" t="s">
+      <c r="F128" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G128" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="10">
         <v>29</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J128" s="17">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A129" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="16">
+      <c r="A129" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="15">
         <v>45726</v>
       </c>
-      <c r="C129" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="16">
+      <c r="C129" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="15">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F129" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G129" s="11" t="s">
+      <c r="F129" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G129" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="10">
         <v>29</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J129" s="18">
+      <c r="J129" s="17">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A130" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="16">
+      <c r="A130" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="15">
         <v>45726</v>
       </c>
-      <c r="C130" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="16">
+      <c r="C130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="15">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E130" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F130" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G130" s="11" t="s">
+      <c r="F130" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G130" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="10">
         <v>29</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J130" s="18">
+      <c r="J130" s="17">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A131" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="16">
+      <c r="A131" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="15">
         <v>45726</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="16">
+      <c r="C131" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="15">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F131" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G131" s="11" t="s">
+      <c r="F131" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="10">
         <v>29</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J131" s="18">
+      <c r="J131" s="17">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A132" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="16">
+      <c r="A132" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="15">
         <v>45726</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="16">
+      <c r="C132" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="15">
         <f t="shared" si="2"/>
         <v>45726</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="F132" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G132" s="11" t="s">
+      <c r="F132" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G132" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="10">
         <v>29</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J132" s="18">
+      <c r="J132" s="17">
         <v>131</v>
       </c>
     </row>
@@ -6456,10 +6520,10 @@
       <c r="H133">
         <v>60</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I133" s="7">
         <v>0.95</v>
       </c>
-      <c r="J133" s="14">
+      <c r="J133" s="13">
         <v>132</v>
       </c>
     </row>
@@ -6489,10 +6553,10 @@
       <c r="H134">
         <v>60</v>
       </c>
-      <c r="I134" s="8">
+      <c r="I134" s="7">
         <v>4.05</v>
       </c>
-      <c r="J134" s="14">
+      <c r="J134" s="13">
         <v>133</v>
       </c>
     </row>
@@ -6522,10 +6586,10 @@
       <c r="H135">
         <v>500</v>
       </c>
-      <c r="I135" s="8">
+      <c r="I135" s="7">
         <v>0.45</v>
       </c>
-      <c r="J135" s="14">
+      <c r="J135" s="13">
         <v>134</v>
       </c>
     </row>
@@ -6555,10 +6619,10 @@
       <c r="H136">
         <v>1</v>
       </c>
-      <c r="I136" s="8">
+      <c r="I136" s="7">
         <v>91.22</v>
       </c>
-      <c r="J136" s="14">
+      <c r="J136" s="13">
         <v>135</v>
       </c>
     </row>
@@ -6588,10 +6652,10 @@
       <c r="H137">
         <v>1</v>
       </c>
-      <c r="I137" s="8">
+      <c r="I137" s="7">
         <v>86.936300000000003</v>
       </c>
-      <c r="J137" s="14">
+      <c r="J137" s="13">
         <v>136</v>
       </c>
     </row>
@@ -6621,10 +6685,10 @@
       <c r="H138">
         <v>60</v>
       </c>
-      <c r="I138" s="8">
+      <c r="I138" s="7">
         <v>3.2</v>
       </c>
-      <c r="J138" s="14">
+      <c r="J138" s="13">
         <v>137</v>
       </c>
     </row>
@@ -6654,10 +6718,10 @@
       <c r="H139">
         <v>1</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I139" s="7">
         <v>60.436700000000002</v>
       </c>
-      <c r="J139" s="14">
+      <c r="J139" s="13">
         <v>138</v>
       </c>
     </row>
@@ -6687,10 +6751,10 @@
       <c r="H140">
         <v>2</v>
       </c>
-      <c r="I140" s="8">
+      <c r="I140" s="7">
         <v>51.487250000000003</v>
       </c>
-      <c r="J140" s="14">
+      <c r="J140" s="13">
         <v>139</v>
       </c>
     </row>
@@ -6720,10 +6784,10 @@
       <c r="H141">
         <v>1</v>
       </c>
-      <c r="I141" s="8">
+      <c r="I141" s="7">
         <v>58.990499999999997</v>
       </c>
-      <c r="J141" s="14">
+      <c r="J141" s="13">
         <v>140</v>
       </c>
     </row>
@@ -6753,10 +6817,10 @@
       <c r="H142">
         <v>1</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="7">
         <v>60.360500000000002</v>
       </c>
-      <c r="J142" s="14">
+      <c r="J142" s="13">
         <v>141</v>
       </c>
     </row>
@@ -6786,10 +6850,10 @@
       <c r="H143">
         <v>1</v>
       </c>
-      <c r="I143" s="8">
+      <c r="I143" s="7">
         <v>38.676699999999997</v>
       </c>
-      <c r="J143" s="14">
+      <c r="J143" s="13">
         <v>142</v>
       </c>
     </row>
@@ -6819,10 +6883,10 @@
       <c r="H144">
         <v>1</v>
       </c>
-      <c r="I144" s="8">
+      <c r="I144" s="7">
         <v>33.5503</v>
       </c>
-      <c r="J144" s="14">
+      <c r="J144" s="13">
         <v>143</v>
       </c>
     </row>
@@ -6852,10 +6916,10 @@
       <c r="H145">
         <v>1</v>
       </c>
-      <c r="I145" s="8">
+      <c r="I145" s="7">
         <v>34.695799999999998</v>
       </c>
-      <c r="J145" s="14">
+      <c r="J145" s="13">
         <v>144</v>
       </c>
     </row>
@@ -6885,10 +6949,10 @@
       <c r="H146">
         <v>1</v>
       </c>
-      <c r="I146" s="8">
+      <c r="I146" s="7">
         <v>28.1294</v>
       </c>
-      <c r="J146" s="14">
+      <c r="J146" s="13">
         <v>145</v>
       </c>
     </row>
@@ -6918,10 +6982,10 @@
       <c r="H147">
         <v>1</v>
       </c>
-      <c r="I147" s="8">
+      <c r="I147" s="7">
         <v>29.3581</v>
       </c>
-      <c r="J147" s="14">
+      <c r="J147" s="13">
         <v>146</v>
       </c>
     </row>
@@ -6951,10 +7015,10 @@
       <c r="H148">
         <v>1</v>
       </c>
-      <c r="I148" s="8">
+      <c r="I148" s="7">
         <v>28.107299999999999</v>
       </c>
-      <c r="J148" s="14">
+      <c r="J148" s="13">
         <v>147</v>
       </c>
     </row>
@@ -6984,10 +7048,10 @@
       <c r="H149">
         <v>1</v>
       </c>
-      <c r="I149" s="8">
+      <c r="I149" s="7">
         <v>30.907299999999999</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="13">
         <v>148</v>
       </c>
     </row>
@@ -7017,10 +7081,10 @@
       <c r="H150">
         <v>1</v>
       </c>
-      <c r="I150" s="8">
+      <c r="I150" s="7">
         <v>39.531599999999997</v>
       </c>
-      <c r="J150" s="14">
+      <c r="J150" s="13">
         <v>149</v>
       </c>
     </row>
@@ -7050,10 +7114,10 @@
       <c r="H151">
         <v>1</v>
       </c>
-      <c r="I151" s="8">
+      <c r="I151" s="7">
         <v>191.32660000000001</v>
       </c>
-      <c r="J151" s="14">
+      <c r="J151" s="13">
         <v>150</v>
       </c>
     </row>
@@ -7083,10 +7147,10 @@
       <c r="H152">
         <v>1</v>
       </c>
-      <c r="I152" s="8">
+      <c r="I152" s="7">
         <v>191.32660000000001</v>
       </c>
-      <c r="J152" s="14">
+      <c r="J152" s="13">
         <v>151</v>
       </c>
     </row>
@@ -7116,10 +7180,10 @@
       <c r="H153">
         <v>1</v>
       </c>
-      <c r="I153" s="8">
+      <c r="I153" s="7">
         <v>207.92320000000001</v>
       </c>
-      <c r="J153" s="14">
+      <c r="J153" s="13">
         <v>152</v>
       </c>
     </row>
@@ -7149,10 +7213,10 @@
       <c r="H154">
         <v>1</v>
       </c>
-      <c r="I154" s="8">
+      <c r="I154" s="7">
         <v>207.92320000000001</v>
       </c>
-      <c r="J154" s="14">
+      <c r="J154" s="13">
         <v>153</v>
       </c>
     </row>
@@ -7182,10 +7246,10 @@
       <c r="H155">
         <v>1</v>
       </c>
-      <c r="I155" s="8">
+      <c r="I155" s="7">
         <v>70.575100000000006</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="13">
         <v>154</v>
       </c>
     </row>
@@ -7215,10 +7279,10 @@
       <c r="H156">
         <v>1</v>
       </c>
-      <c r="I156" s="8">
+      <c r="I156" s="7">
         <v>70.575100000000006</v>
       </c>
-      <c r="J156" s="14">
+      <c r="J156" s="13">
         <v>155</v>
       </c>
     </row>
@@ -7248,10 +7312,10 @@
       <c r="H157">
         <v>1</v>
       </c>
-      <c r="I157" s="8">
+      <c r="I157" s="7">
         <v>121.3685</v>
       </c>
-      <c r="J157" s="14">
+      <c r="J157" s="13">
         <v>156</v>
       </c>
     </row>
@@ -7281,10 +7345,10 @@
       <c r="H158">
         <v>1</v>
       </c>
-      <c r="I158" s="8">
+      <c r="I158" s="7">
         <v>128.63650000000001</v>
       </c>
-      <c r="J158" s="14">
+      <c r="J158" s="13">
         <v>157</v>
       </c>
     </row>
@@ -7314,10 +7378,10 @@
       <c r="H159">
         <v>1</v>
       </c>
-      <c r="I159" s="8">
+      <c r="I159" s="7">
         <v>104.0652</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J159" s="13">
         <v>158</v>
       </c>
     </row>
@@ -7347,10 +7411,10 @@
       <c r="H160">
         <v>1</v>
       </c>
-      <c r="I160" s="8">
+      <c r="I160" s="7">
         <v>98.768799999999999</v>
       </c>
-      <c r="J160" s="14">
+      <c r="J160" s="13">
         <v>159</v>
       </c>
     </row>
@@ -7380,10 +7444,10 @@
       <c r="H161">
         <v>1</v>
       </c>
-      <c r="I161" s="8">
+      <c r="I161" s="7">
         <v>110.51560000000001</v>
       </c>
-      <c r="J161" s="14">
+      <c r="J161" s="13">
         <v>160</v>
       </c>
     </row>
@@ -7413,10 +7477,10 @@
       <c r="H162">
         <v>1</v>
       </c>
-      <c r="I162" s="8">
+      <c r="I162" s="7">
         <v>284.29289999999997</v>
       </c>
-      <c r="J162" s="14">
+      <c r="J162" s="13">
         <v>161</v>
       </c>
     </row>
@@ -7446,10 +7510,10 @@
       <c r="H163">
         <v>1</v>
       </c>
-      <c r="I163" s="8">
+      <c r="I163" s="7">
         <v>251.55330000000001</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="13">
         <v>162</v>
       </c>
     </row>
@@ -7479,10 +7543,10 @@
       <c r="H164">
         <v>1</v>
       </c>
-      <c r="I164" s="8">
+      <c r="I164" s="7">
         <v>47.932400000000001</v>
       </c>
-      <c r="J164" s="14">
+      <c r="J164" s="13">
         <v>163</v>
       </c>
     </row>
@@ -7512,10 +7576,10 @@
       <c r="H165">
         <v>2</v>
       </c>
-      <c r="I165" s="8">
+      <c r="I165" s="7">
         <v>383.45454999999998</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="13">
         <v>164</v>
       </c>
     </row>
@@ -7545,10 +7609,10 @@
       <c r="H166">
         <v>1</v>
       </c>
-      <c r="I166" s="8">
+      <c r="I166" s="7">
         <v>281.84620000000001</v>
       </c>
-      <c r="J166" s="14">
+      <c r="J166" s="13">
         <v>165</v>
       </c>
     </row>
@@ -7578,10 +7642,10 @@
       <c r="H167">
         <v>1</v>
       </c>
-      <c r="I167" s="8">
+      <c r="I167" s="7">
         <v>183.10159999999999</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="13">
         <v>166</v>
       </c>
     </row>
@@ -7611,10 +7675,10 @@
       <c r="H168">
         <v>1</v>
       </c>
-      <c r="I168" s="8">
+      <c r="I168" s="7">
         <v>175.29990000000001</v>
       </c>
-      <c r="J168" s="14">
+      <c r="J168" s="13">
         <v>167</v>
       </c>
     </row>
@@ -7644,10 +7708,10 @@
       <c r="H169">
         <v>1</v>
       </c>
-      <c r="I169" s="8">
+      <c r="I169" s="7">
         <v>256.97910000000002</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="13">
         <v>168</v>
       </c>
     </row>
@@ -7677,10 +7741,10 @@
       <c r="H170">
         <v>1</v>
       </c>
-      <c r="I170" s="8">
+      <c r="I170" s="7">
         <v>191.1421</v>
       </c>
-      <c r="J170" s="14">
+      <c r="J170" s="13">
         <v>169</v>
       </c>
     </row>
@@ -7710,10 +7774,10 @@
       <c r="H171">
         <v>100</v>
       </c>
-      <c r="I171" s="8">
+      <c r="I171" s="7">
         <v>247.79</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="13">
         <v>170</v>
       </c>
     </row>
@@ -7743,10 +7807,10 @@
       <c r="H172">
         <v>20</v>
       </c>
-      <c r="I172" s="8">
+      <c r="I172" s="7">
         <v>1081.96</v>
       </c>
-      <c r="J172" s="14">
+      <c r="J172" s="13">
         <v>171</v>
       </c>
     </row>
@@ -7776,10 +7840,10 @@
       <c r="H173">
         <v>150</v>
       </c>
-      <c r="I173" s="8">
+      <c r="I173" s="7">
         <v>1000.79</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="13">
         <v>172</v>
       </c>
     </row>
@@ -7809,10 +7873,10 @@
       <c r="H174">
         <v>23</v>
       </c>
-      <c r="I174" s="8">
+      <c r="I174" s="7">
         <v>783.01</v>
       </c>
-      <c r="J174" s="14">
+      <c r="J174" s="13">
         <v>173</v>
       </c>
     </row>
@@ -7842,10 +7906,10 @@
       <c r="H175">
         <v>10</v>
       </c>
-      <c r="I175" s="8">
+      <c r="I175" s="7">
         <v>1455.7038399999999</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="13">
         <v>174</v>
       </c>
     </row>
@@ -7875,10 +7939,10 @@
       <c r="H176">
         <v>1</v>
       </c>
-      <c r="I176" s="8">
+      <c r="I176" s="7">
         <v>2880.2060999999999</v>
       </c>
-      <c r="J176" s="14">
+      <c r="J176" s="13">
         <v>175</v>
       </c>
     </row>
@@ -7908,10 +7972,10 @@
       <c r="H177">
         <v>5</v>
       </c>
-      <c r="I177" s="8">
+      <c r="I177" s="7">
         <v>1326.5346999999999</v>
       </c>
-      <c r="J177" s="14">
+      <c r="J177" s="13">
         <v>176</v>
       </c>
     </row>
@@ -7941,10 +8005,10 @@
       <c r="H178">
         <v>1</v>
       </c>
-      <c r="I178" s="8">
+      <c r="I178" s="7">
         <v>426.5908</v>
       </c>
-      <c r="J178" s="14">
+      <c r="J178" s="13">
         <v>177</v>
       </c>
     </row>
@@ -7974,10 +8038,10 @@
       <c r="H179">
         <v>1</v>
       </c>
-      <c r="I179" s="8">
+      <c r="I179" s="7">
         <v>863.70270000000005</v>
       </c>
-      <c r="J179" s="14">
+      <c r="J179" s="13">
         <v>178</v>
       </c>
     </row>
@@ -8007,10 +8071,10 @@
       <c r="H180">
         <v>1</v>
       </c>
-      <c r="I180" s="8">
+      <c r="I180" s="7">
         <v>422.77019999999999</v>
       </c>
-      <c r="J180" s="14">
+      <c r="J180" s="13">
         <v>179</v>
       </c>
     </row>
@@ -8040,10 +8104,10 @@
       <c r="H181">
         <v>1</v>
       </c>
-      <c r="I181" s="8">
+      <c r="I181" s="7">
         <v>236.1688</v>
       </c>
-      <c r="J181" s="14">
+      <c r="J181" s="13">
         <v>180</v>
       </c>
     </row>
@@ -8073,10 +8137,10 @@
       <c r="H182">
         <v>1</v>
       </c>
-      <c r="I182" s="8">
+      <c r="I182" s="7">
         <v>236.0204</v>
       </c>
-      <c r="J182" s="14">
+      <c r="J182" s="13">
         <v>181</v>
       </c>
     </row>
@@ -8106,10 +8170,10 @@
       <c r="H183">
         <v>1</v>
       </c>
-      <c r="I183" s="8">
+      <c r="I183" s="7">
         <v>236.0204</v>
       </c>
-      <c r="J183" s="14">
+      <c r="J183" s="13">
         <v>182</v>
       </c>
     </row>
@@ -8139,10 +8203,10 @@
       <c r="H184">
         <v>1</v>
       </c>
-      <c r="I184" s="8">
+      <c r="I184" s="7">
         <v>417.3374</v>
       </c>
-      <c r="J184" s="14">
+      <c r="J184" s="13">
         <v>183</v>
       </c>
     </row>
@@ -8172,10 +8236,10 @@
       <c r="H185">
         <v>1</v>
       </c>
-      <c r="I185" s="8">
+      <c r="I185" s="7">
         <v>417.07920000000001</v>
       </c>
-      <c r="J185" s="14">
+      <c r="J185" s="13">
         <v>184</v>
       </c>
     </row>
@@ -8205,10 +8269,10 @@
       <c r="H186">
         <v>1</v>
       </c>
-      <c r="I186" s="8">
+      <c r="I186" s="7">
         <v>417.07920000000001</v>
       </c>
-      <c r="J186" s="14">
+      <c r="J186" s="13">
         <v>185</v>
       </c>
     </row>
@@ -8238,10 +8302,10 @@
       <c r="H187">
         <v>22</v>
       </c>
-      <c r="I187" s="8">
+      <c r="I187" s="7">
         <v>15.2257</v>
       </c>
-      <c r="J187" s="14">
+      <c r="J187" s="13">
         <v>186</v>
       </c>
     </row>
@@ -8271,10 +8335,10 @@
       <c r="H188">
         <v>120</v>
       </c>
-      <c r="I188" s="8">
+      <c r="I188" s="7">
         <v>5.8</v>
       </c>
-      <c r="J188" s="14">
+      <c r="J188" s="13">
         <v>187</v>
       </c>
     </row>
@@ -8304,10 +8368,10 @@
       <c r="H189">
         <v>3</v>
       </c>
-      <c r="I189" s="8">
+      <c r="I189" s="7">
         <v>880</v>
       </c>
-      <c r="J189" s="14">
+      <c r="J189" s="13">
         <v>188</v>
       </c>
     </row>
@@ -8337,10 +8401,10 @@
       <c r="H190">
         <v>44</v>
       </c>
-      <c r="I190" s="8">
+      <c r="I190" s="7">
         <v>0.95</v>
       </c>
-      <c r="J190" s="14">
+      <c r="J190" s="13">
         <v>189</v>
       </c>
     </row>
@@ -8370,10 +8434,10 @@
       <c r="H191">
         <v>120</v>
       </c>
-      <c r="I191" s="8">
+      <c r="I191" s="7">
         <v>0.16</v>
       </c>
-      <c r="J191" s="14">
+      <c r="J191" s="13">
         <v>190</v>
       </c>
     </row>
@@ -8403,10 +8467,10 @@
       <c r="H192">
         <v>44</v>
       </c>
-      <c r="I192" s="8">
+      <c r="I192" s="7">
         <v>4.05</v>
       </c>
-      <c r="J192" s="14">
+      <c r="J192" s="13">
         <v>191</v>
       </c>
     </row>
@@ -8436,10 +8500,10 @@
       <c r="H193">
         <v>96</v>
       </c>
-      <c r="I193" s="8">
+      <c r="I193" s="7">
         <v>0.34799999999999998</v>
       </c>
-      <c r="J193" s="14">
+      <c r="J193" s="13">
         <v>192</v>
       </c>
     </row>
@@ -8469,10 +8533,10 @@
       <c r="H194">
         <v>22</v>
       </c>
-      <c r="I194" s="8">
+      <c r="I194" s="7">
         <v>16</v>
       </c>
-      <c r="J194" s="14">
+      <c r="J194" s="13">
         <v>193</v>
       </c>
     </row>
@@ -8502,10 +8566,10 @@
       <c r="H195">
         <v>22</v>
       </c>
-      <c r="I195" s="8">
+      <c r="I195" s="7">
         <v>1.5</v>
       </c>
-      <c r="J195" s="14">
+      <c r="J195" s="13">
         <v>194</v>
       </c>
     </row>
@@ -8535,10 +8599,10 @@
       <c r="H196">
         <v>120</v>
       </c>
-      <c r="I196" s="8">
+      <c r="I196" s="7">
         <v>1.3</v>
       </c>
-      <c r="J196" s="14">
+      <c r="J196" s="13">
         <v>195</v>
       </c>
     </row>
@@ -8568,10 +8632,10 @@
       <c r="H197">
         <v>120</v>
       </c>
-      <c r="I197" s="8">
+      <c r="I197" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J197" s="14">
+      <c r="J197" s="13">
         <v>196</v>
       </c>
     </row>
@@ -8601,10 +8665,10 @@
       <c r="H198">
         <v>96</v>
       </c>
-      <c r="I198" s="8">
+      <c r="I198" s="7">
         <v>0.34799999999999998</v>
       </c>
-      <c r="J198" s="14">
+      <c r="J198" s="13">
         <v>197</v>
       </c>
     </row>
@@ -8634,10 +8698,10 @@
       <c r="H199">
         <v>44</v>
       </c>
-      <c r="I199" s="8">
+      <c r="I199" s="7">
         <v>3.2</v>
       </c>
-      <c r="J199" s="14">
+      <c r="J199" s="13">
         <v>198</v>
       </c>
     </row>
@@ -8667,10 +8731,10 @@
       <c r="H200">
         <v>200</v>
       </c>
-      <c r="I200" s="8">
+      <c r="I200" s="7">
         <v>47.47</v>
       </c>
-      <c r="J200" s="14">
+      <c r="J200" s="13">
         <v>199</v>
       </c>
     </row>
@@ -8700,10 +8764,10 @@
       <c r="H201">
         <v>1</v>
       </c>
-      <c r="I201" s="8">
+      <c r="I201" s="7">
         <v>77.660799999999995</v>
       </c>
-      <c r="J201" s="14">
+      <c r="J201" s="13">
         <v>200</v>
       </c>
     </row>
@@ -8733,10 +8797,10 @@
       <c r="H202">
         <v>1</v>
       </c>
-      <c r="I202" s="8">
+      <c r="I202" s="7">
         <v>67.117599999999996</v>
       </c>
-      <c r="J202" s="14">
+      <c r="J202" s="13">
         <v>201</v>
       </c>
     </row>
@@ -8766,10 +8830,10 @@
       <c r="H203">
         <v>1</v>
       </c>
-      <c r="I203" s="8">
+      <c r="I203" s="7">
         <v>67.117599999999996</v>
       </c>
-      <c r="J203" s="14">
+      <c r="J203" s="13">
         <v>202</v>
       </c>
     </row>
@@ -8799,10 +8863,10 @@
       <c r="H204">
         <v>1</v>
       </c>
-      <c r="I204" s="8">
+      <c r="I204" s="7">
         <v>93.2273</v>
       </c>
-      <c r="J204" s="14">
+      <c r="J204" s="13">
         <v>203</v>
       </c>
     </row>
@@ -8832,10 +8896,10 @@
       <c r="H205">
         <v>1</v>
       </c>
-      <c r="I205" s="8">
+      <c r="I205" s="7">
         <v>29.394300000000001</v>
       </c>
-      <c r="J205" s="14">
+      <c r="J205" s="13">
         <v>204</v>
       </c>
     </row>
@@ -8865,10 +8929,10 @@
       <c r="H206">
         <v>1</v>
       </c>
-      <c r="I206" s="8">
+      <c r="I206" s="7">
         <v>46.516500000000001</v>
       </c>
-      <c r="J206" s="14">
+      <c r="J206" s="13">
         <v>205</v>
       </c>
     </row>
@@ -8898,10 +8962,10 @@
       <c r="H207">
         <v>2</v>
       </c>
-      <c r="I207" s="8">
+      <c r="I207" s="7">
         <v>31.322500000000002</v>
       </c>
-      <c r="J207" s="14">
+      <c r="J207" s="13">
         <v>206</v>
       </c>
     </row>
@@ -8931,10 +8995,10 @@
       <c r="H208">
         <v>1</v>
       </c>
-      <c r="I208" s="8">
+      <c r="I208" s="7">
         <v>31.390899999999998</v>
       </c>
-      <c r="J208" s="14">
+      <c r="J208" s="13">
         <v>207</v>
       </c>
     </row>
@@ -8964,10 +9028,10 @@
       <c r="H209">
         <v>1</v>
       </c>
-      <c r="I209" s="8">
+      <c r="I209" s="7">
         <v>23.8401</v>
       </c>
-      <c r="J209" s="14">
+      <c r="J209" s="13">
         <v>208</v>
       </c>
     </row>
@@ -8997,10 +9061,10 @@
       <c r="H210">
         <v>1</v>
       </c>
-      <c r="I210" s="8">
+      <c r="I210" s="7">
         <v>23.8401</v>
       </c>
-      <c r="J210" s="14">
+      <c r="J210" s="13">
         <v>209</v>
       </c>
     </row>
@@ -9030,10 +9094,10 @@
       <c r="H211">
         <v>1</v>
       </c>
-      <c r="I211" s="8">
+      <c r="I211" s="7">
         <v>50.117600000000003</v>
       </c>
-      <c r="J211" s="14">
+      <c r="J211" s="13">
         <v>210</v>
       </c>
     </row>
@@ -9063,10 +9127,10 @@
       <c r="H212">
         <v>1</v>
       </c>
-      <c r="I212" s="8">
+      <c r="I212" s="7">
         <v>43.289700000000003</v>
       </c>
-      <c r="J212" s="14">
+      <c r="J212" s="13">
         <v>211</v>
       </c>
     </row>
@@ -9096,10 +9160,10 @@
       <c r="H213">
         <v>1</v>
       </c>
-      <c r="I213" s="8">
+      <c r="I213" s="7">
         <v>43.289700000000003</v>
       </c>
-      <c r="J213" s="14">
+      <c r="J213" s="13">
         <v>212</v>
       </c>
     </row>
@@ -9129,10 +9193,10 @@
       <c r="H214">
         <v>20</v>
       </c>
-      <c r="I214" s="8">
+      <c r="I214" s="7">
         <v>241.78</v>
       </c>
-      <c r="J214" s="14">
+      <c r="J214" s="13">
         <v>213</v>
       </c>
     </row>
@@ -9162,10 +9226,10 @@
       <c r="H215">
         <v>1</v>
       </c>
-      <c r="I215" s="8">
+      <c r="I215" s="7">
         <v>165.45439999999999</v>
       </c>
-      <c r="J215" s="14">
+      <c r="J215" s="13">
         <v>214</v>
       </c>
     </row>
@@ -9195,10 +9259,10 @@
       <c r="H216">
         <v>1</v>
       </c>
-      <c r="I216" s="8">
+      <c r="I216" s="7">
         <v>165.35550000000001</v>
       </c>
-      <c r="J216" s="14">
+      <c r="J216" s="13">
         <v>215</v>
       </c>
     </row>
@@ -9228,10 +9292,10 @@
       <c r="H217">
         <v>1</v>
       </c>
-      <c r="I217" s="8">
+      <c r="I217" s="7">
         <v>167.87719999999999</v>
       </c>
-      <c r="J217" s="14">
+      <c r="J217" s="13">
         <v>216</v>
       </c>
     </row>
@@ -9261,10 +9325,10 @@
       <c r="H218">
         <v>1</v>
       </c>
-      <c r="I218" s="8">
+      <c r="I218" s="7">
         <v>119.2174</v>
       </c>
-      <c r="J218" s="14">
+      <c r="J218" s="13">
         <v>217</v>
       </c>
     </row>
@@ -9294,10 +9358,10 @@
       <c r="H219">
         <v>1</v>
       </c>
-      <c r="I219" s="8">
+      <c r="I219" s="7">
         <v>58.826300000000003</v>
       </c>
-      <c r="J219" s="14">
+      <c r="J219" s="13">
         <v>218</v>
       </c>
     </row>
@@ -9327,10 +9391,10 @@
       <c r="H220">
         <v>50</v>
       </c>
-      <c r="I220" s="8">
+      <c r="I220" s="7">
         <v>850.65260000000001</v>
       </c>
-      <c r="J220" s="14">
+      <c r="J220" s="13">
         <v>219</v>
       </c>
     </row>
@@ -9360,10 +9424,10 @@
       <c r="H221">
         <v>10</v>
       </c>
-      <c r="I221" s="8">
+      <c r="I221" s="7">
         <v>965.10418000000004</v>
       </c>
-      <c r="J221" s="14">
+      <c r="J221" s="13">
         <v>220</v>
       </c>
     </row>
@@ -9393,10 +9457,10 @@
       <c r="H222">
         <v>1</v>
       </c>
-      <c r="I222" s="8">
+      <c r="I222" s="7">
         <v>260.46120000000002</v>
       </c>
-      <c r="J222" s="14">
+      <c r="J222" s="13">
         <v>221</v>
       </c>
     </row>
@@ -9426,10 +9490,10 @@
       <c r="H223">
         <v>1</v>
       </c>
-      <c r="I223" s="8">
+      <c r="I223" s="7">
         <v>312.0369</v>
       </c>
-      <c r="J223" s="14">
+      <c r="J223" s="13">
         <v>222</v>
       </c>
     </row>
@@ -9459,10 +9523,10 @@
       <c r="H224">
         <v>1</v>
       </c>
-      <c r="I224" s="8">
+      <c r="I224" s="7">
         <v>321.2713</v>
       </c>
-      <c r="J224" s="14">
+      <c r="J224" s="13">
         <v>223</v>
       </c>
     </row>
@@ -9492,10 +9556,10 @@
       <c r="H225">
         <v>1</v>
       </c>
-      <c r="I225" s="8">
+      <c r="I225" s="7">
         <v>767.55039999999997</v>
       </c>
-      <c r="J225" s="14">
+      <c r="J225" s="13">
         <v>224</v>
       </c>
     </row>
@@ -9525,10 +9589,10 @@
       <c r="H226">
         <v>1</v>
       </c>
-      <c r="I226" s="8">
+      <c r="I226" s="7">
         <v>517.76149999999996</v>
       </c>
-      <c r="J226" s="14">
+      <c r="J226" s="13">
         <v>225</v>
       </c>
     </row>
@@ -9558,10 +9622,10 @@
       <c r="H227">
         <v>1</v>
       </c>
-      <c r="I227" s="8">
+      <c r="I227" s="7">
         <v>800.41780000000006</v>
       </c>
-      <c r="J227" s="14">
+      <c r="J227" s="13">
         <v>226</v>
       </c>
     </row>
@@ -9591,10 +9655,10 @@
       <c r="H228">
         <v>1</v>
       </c>
-      <c r="I228" s="8">
+      <c r="I228" s="7">
         <v>122.40470000000001</v>
       </c>
-      <c r="J228" s="14">
+      <c r="J228" s="13">
         <v>227</v>
       </c>
     </row>
@@ -9624,10 +9688,10 @@
       <c r="H229">
         <v>20</v>
       </c>
-      <c r="I229" s="8">
+      <c r="I229" s="7">
         <v>13.48352</v>
       </c>
-      <c r="J229" s="14">
+      <c r="J229" s="13">
         <v>228</v>
       </c>
     </row>
@@ -9657,10 +9721,10 @@
       <c r="H230">
         <v>1</v>
       </c>
-      <c r="I230" s="8">
+      <c r="I230" s="7">
         <v>30.888100000000001</v>
       </c>
-      <c r="J230" s="14">
+      <c r="J230" s="13">
         <v>229</v>
       </c>
     </row>
@@ -9690,10 +9754,10 @@
       <c r="H231">
         <v>1</v>
       </c>
-      <c r="I231" s="8">
+      <c r="I231" s="7">
         <v>30.616299999999999</v>
       </c>
-      <c r="J231" s="14">
+      <c r="J231" s="13">
         <v>230</v>
       </c>
     </row>
@@ -9723,10 +9787,10 @@
       <c r="H232">
         <v>1</v>
       </c>
-      <c r="I232" s="8">
+      <c r="I232" s="7">
         <v>100.6669</v>
       </c>
-      <c r="J232" s="14">
+      <c r="J232" s="13">
         <v>231</v>
       </c>
     </row>
@@ -9756,10 +9820,10 @@
       <c r="H233">
         <v>1</v>
       </c>
-      <c r="I233" s="8">
+      <c r="I233" s="7">
         <v>102.7544</v>
       </c>
-      <c r="J233" s="14">
+      <c r="J233" s="13">
         <v>232</v>
       </c>
     </row>
@@ -9789,10 +9853,10 @@
       <c r="H234">
         <v>1</v>
       </c>
-      <c r="I234" s="8">
+      <c r="I234" s="7">
         <v>111.7118</v>
       </c>
-      <c r="J234" s="14">
+      <c r="J234" s="13">
         <v>233</v>
       </c>
     </row>
@@ -9822,10 +9886,10 @@
       <c r="H235">
         <v>1</v>
       </c>
-      <c r="I235" s="8">
+      <c r="I235" s="7">
         <v>188.21100000000001</v>
       </c>
-      <c r="J235" s="14">
+      <c r="J235" s="13">
         <v>234</v>
       </c>
     </row>
@@ -9855,10 +9919,10 @@
       <c r="H236">
         <v>1</v>
       </c>
-      <c r="I236" s="8">
+      <c r="I236" s="7">
         <v>251.542</v>
       </c>
-      <c r="J236" s="14">
+      <c r="J236" s="13">
         <v>235</v>
       </c>
     </row>
@@ -9888,10 +9952,10 @@
       <c r="H237">
         <v>1</v>
       </c>
-      <c r="I237" s="8">
+      <c r="I237" s="7">
         <v>258.73099999999999</v>
       </c>
-      <c r="J237" s="14">
+      <c r="J237" s="13">
         <v>236</v>
       </c>
     </row>
@@ -9921,10 +9985,10 @@
       <c r="H238">
         <v>1</v>
       </c>
-      <c r="I238" s="8">
+      <c r="I238" s="7">
         <v>404.28809999999999</v>
       </c>
-      <c r="J238" s="14">
+      <c r="J238" s="13">
         <v>237</v>
       </c>
     </row>
@@ -9954,10 +10018,10 @@
       <c r="H239">
         <v>20</v>
       </c>
-      <c r="I239" s="8">
+      <c r="I239" s="7">
         <v>8.9107699999999994</v>
       </c>
-      <c r="J239" s="14">
+      <c r="J239" s="13">
         <v>238</v>
       </c>
     </row>
@@ -9987,10 +10051,10 @@
       <c r="H240">
         <v>1</v>
       </c>
-      <c r="I240" s="8">
+      <c r="I240" s="7">
         <v>187</v>
       </c>
-      <c r="J240" s="14">
+      <c r="J240" s="13">
         <v>239</v>
       </c>
     </row>
@@ -10020,10 +10084,10 @@
       <c r="H241">
         <v>1</v>
       </c>
-      <c r="I241" s="8">
+      <c r="I241" s="7">
         <v>4107.8977000000004</v>
       </c>
-      <c r="J241" s="14">
+      <c r="J241" s="13">
         <v>240</v>
       </c>
     </row>
@@ -10053,10 +10117,10 @@
       <c r="H242">
         <v>1</v>
       </c>
-      <c r="I242" s="8">
+      <c r="I242" s="7">
         <v>70.247500000000002</v>
       </c>
-      <c r="J242" s="14">
+      <c r="J242" s="13">
         <v>241</v>
       </c>
     </row>
@@ -10086,10 +10150,10 @@
       <c r="H243">
         <v>25</v>
       </c>
-      <c r="I243" s="8">
+      <c r="I243" s="7">
         <v>793.18389999999999</v>
       </c>
-      <c r="J243" s="14">
+      <c r="J243" s="13">
         <v>242</v>
       </c>
     </row>
@@ -10119,10 +10183,10 @@
       <c r="H244">
         <v>20</v>
       </c>
-      <c r="I244" s="8">
+      <c r="I244" s="7">
         <v>943.6182</v>
       </c>
-      <c r="J244" s="14">
+      <c r="J244" s="13">
         <v>243</v>
       </c>
     </row>
@@ -10152,10 +10216,10 @@
       <c r="H245">
         <v>10</v>
       </c>
-      <c r="I245" s="8">
+      <c r="I245" s="7">
         <v>1420.10034</v>
       </c>
-      <c r="J245" s="14">
+      <c r="J245" s="13">
         <v>244</v>
       </c>
     </row>
@@ -10185,10 +10249,10 @@
       <c r="H246">
         <v>1</v>
       </c>
-      <c r="I246" s="8">
+      <c r="I246" s="7">
         <v>1020</v>
       </c>
-      <c r="J246" s="14">
+      <c r="J246" s="13">
         <v>245</v>
       </c>
     </row>
@@ -10218,10 +10282,10 @@
       <c r="H247">
         <v>1</v>
       </c>
-      <c r="I247" s="8">
+      <c r="I247" s="7">
         <v>1220</v>
       </c>
-      <c r="J247" s="14">
+      <c r="J247" s="13">
         <v>246</v>
       </c>
     </row>
@@ -10251,10 +10315,10 @@
       <c r="H248">
         <v>36</v>
       </c>
-      <c r="I248" s="8">
+      <c r="I248" s="7">
         <v>843.61941388888897</v>
       </c>
-      <c r="J248" s="14">
+      <c r="J248" s="13">
         <v>247</v>
       </c>
     </row>
@@ -10284,10 +10348,10 @@
       <c r="H249">
         <v>15</v>
       </c>
-      <c r="I249" s="8">
+      <c r="I249" s="7">
         <v>809.310926666667</v>
       </c>
-      <c r="J249" s="14">
+      <c r="J249" s="13">
         <v>248</v>
       </c>
     </row>
@@ -10317,10 +10381,10 @@
       <c r="H250">
         <v>21</v>
       </c>
-      <c r="I250" s="8">
+      <c r="I250" s="7">
         <v>831.40847619047599</v>
       </c>
-      <c r="J250" s="14">
+      <c r="J250" s="13">
         <v>249</v>
       </c>
     </row>
@@ -10350,10 +10414,10 @@
       <c r="H251">
         <v>1</v>
       </c>
-      <c r="I251" s="8">
+      <c r="I251" s="7">
         <v>689.93430000000001</v>
       </c>
-      <c r="J251" s="14">
+      <c r="J251" s="13">
         <v>250</v>
       </c>
     </row>
@@ -10383,175 +10447,175 @@
       <c r="H252">
         <v>5</v>
       </c>
-      <c r="I252" s="8">
+      <c r="I252" s="7">
         <v>0.98</v>
       </c>
-      <c r="J252" s="14">
+      <c r="J252" s="13">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A253" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B253" s="16">
+      <c r="A253" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="15">
         <v>45730</v>
       </c>
-      <c r="C253" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D253" s="16">
+      <c r="C253" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253" s="15">
         <f t="shared" si="3"/>
         <v>45730</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E253" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F253" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G253" s="11" t="s">
+      <c r="F253" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G253" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H253" s="11">
+      <c r="H253" s="10">
         <v>4</v>
       </c>
-      <c r="I253" s="12">
+      <c r="I253" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J253" s="18">
+      <c r="J253" s="17">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A254" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B254" s="16">
+      <c r="A254" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="15">
         <v>45730</v>
       </c>
-      <c r="C254" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D254" s="16">
+      <c r="C254" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" s="15">
         <f t="shared" si="3"/>
         <v>45730</v>
       </c>
-      <c r="E254" s="11" t="s">
+      <c r="E254" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F254" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G254" s="11" t="s">
+      <c r="F254" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G254" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H254" s="11">
+      <c r="H254" s="10">
         <v>4</v>
       </c>
-      <c r="I254" s="12">
+      <c r="I254" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J254" s="18">
+      <c r="J254" s="17">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A255" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B255" s="16">
+      <c r="A255" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B255" s="15">
         <v>45730</v>
       </c>
-      <c r="C255" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D255" s="16">
+      <c r="C255" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D255" s="15">
         <f t="shared" si="3"/>
         <v>45730</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="E255" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F255" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G255" s="11" t="s">
+      <c r="F255" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G255" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H255" s="11">
+      <c r="H255" s="10">
         <v>4</v>
       </c>
-      <c r="I255" s="12">
+      <c r="I255" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J255" s="18">
+      <c r="J255" s="17">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A256" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B256" s="16">
+      <c r="A256" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="15">
         <v>45730</v>
       </c>
-      <c r="C256" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D256" s="16">
+      <c r="C256" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" s="15">
         <f t="shared" ref="D256:D319" si="4">B256</f>
         <v>45730</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="E256" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F256" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G256" s="11" t="s">
+      <c r="F256" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G256" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H256" s="11">
+      <c r="H256" s="10">
         <v>4</v>
       </c>
-      <c r="I256" s="12">
+      <c r="I256" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J256" s="18">
+      <c r="J256" s="17">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A257" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B257" s="16">
+      <c r="A257" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" s="15">
         <v>45730</v>
       </c>
-      <c r="C257" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D257" s="16">
+      <c r="C257" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" s="15">
         <f t="shared" si="4"/>
         <v>45730</v>
       </c>
-      <c r="E257" s="11" t="s">
+      <c r="E257" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F257" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G257" s="11" t="s">
+      <c r="F257" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G257" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H257" s="11">
+      <c r="H257" s="10">
         <v>4</v>
       </c>
-      <c r="I257" s="12">
+      <c r="I257" s="11">
         <v>82.825000000000003</v>
       </c>
-      <c r="J257" s="18">
+      <c r="J257" s="17">
         <v>256</v>
       </c>
     </row>
@@ -10581,10 +10645,10 @@
       <c r="H258">
         <v>20</v>
       </c>
-      <c r="I258" s="8">
+      <c r="I258" s="7">
         <v>0.95</v>
       </c>
-      <c r="J258" s="14">
+      <c r="J258" s="13">
         <v>257</v>
       </c>
     </row>
@@ -10614,10 +10678,10 @@
       <c r="H259">
         <v>20</v>
       </c>
-      <c r="I259" s="8">
+      <c r="I259" s="7">
         <v>4.05</v>
       </c>
-      <c r="J259" s="14">
+      <c r="J259" s="13">
         <v>258</v>
       </c>
     </row>
@@ -10647,10 +10711,10 @@
       <c r="H260">
         <v>5</v>
       </c>
-      <c r="I260" s="8">
+      <c r="I260" s="7">
         <v>55</v>
       </c>
-      <c r="J260" s="14">
+      <c r="J260" s="13">
         <v>259</v>
       </c>
     </row>
@@ -10680,10 +10744,10 @@
       <c r="H261">
         <v>1</v>
       </c>
-      <c r="I261" s="8">
+      <c r="I261" s="7">
         <v>87.675799999999995</v>
       </c>
-      <c r="J261" s="14">
+      <c r="J261" s="13">
         <v>260</v>
       </c>
     </row>
@@ -10713,10 +10777,10 @@
       <c r="H262">
         <v>20</v>
       </c>
-      <c r="I262" s="8">
+      <c r="I262" s="7">
         <v>3.2</v>
       </c>
-      <c r="J262" s="14">
+      <c r="J262" s="13">
         <v>261</v>
       </c>
     </row>
@@ -10746,10 +10810,10 @@
       <c r="H263">
         <v>1</v>
       </c>
-      <c r="I263" s="8">
+      <c r="I263" s="7">
         <v>259.42910000000001</v>
       </c>
-      <c r="J263" s="14">
+      <c r="J263" s="13">
         <v>262</v>
       </c>
     </row>
@@ -10779,10 +10843,10 @@
       <c r="H264">
         <v>1</v>
       </c>
-      <c r="I264" s="8">
+      <c r="I264" s="7">
         <v>3156.5169000000001</v>
       </c>
-      <c r="J264" s="14">
+      <c r="J264" s="13">
         <v>263</v>
       </c>
     </row>
@@ -10812,10 +10876,10 @@
       <c r="H265">
         <v>3</v>
       </c>
-      <c r="I265" s="8">
+      <c r="I265" s="7">
         <v>951.24506666666696</v>
       </c>
-      <c r="J265" s="14">
+      <c r="J265" s="13">
         <v>264</v>
       </c>
     </row>
@@ -10845,10 +10909,10 @@
       <c r="H266">
         <v>27</v>
       </c>
-      <c r="I266" s="8">
+      <c r="I266" s="7">
         <v>963.74546296296296</v>
       </c>
-      <c r="J266" s="14">
+      <c r="J266" s="13">
         <v>265</v>
       </c>
     </row>
@@ -10878,10 +10942,10 @@
       <c r="H267">
         <v>2</v>
       </c>
-      <c r="I267" s="8">
+      <c r="I267" s="7">
         <v>6.5</v>
       </c>
-      <c r="J267" s="14">
+      <c r="J267" s="13">
         <v>266</v>
       </c>
     </row>
@@ -10911,10 +10975,10 @@
       <c r="H268">
         <v>54</v>
       </c>
-      <c r="I268" s="8">
+      <c r="I268" s="7">
         <v>6.1470907407407402</v>
       </c>
-      <c r="J268" s="14">
+      <c r="J268" s="13">
         <v>267</v>
       </c>
     </row>
@@ -10944,10 +11008,10 @@
       <c r="H269">
         <v>2</v>
       </c>
-      <c r="I269" s="8">
+      <c r="I269" s="7">
         <v>1.52</v>
       </c>
-      <c r="J269" s="14">
+      <c r="J269" s="13">
         <v>268</v>
       </c>
     </row>
@@ -10977,10 +11041,10 @@
       <c r="H270">
         <v>6</v>
       </c>
-      <c r="I270" s="8">
+      <c r="I270" s="7">
         <v>10.039533333333299</v>
       </c>
-      <c r="J270" s="14">
+      <c r="J270" s="13">
         <v>269</v>
       </c>
     </row>
@@ -11010,10 +11074,10 @@
       <c r="H271">
         <v>2</v>
       </c>
-      <c r="I271" s="8">
+      <c r="I271" s="7">
         <v>9.0327000000000002</v>
       </c>
-      <c r="J271" s="14">
+      <c r="J271" s="13">
         <v>270</v>
       </c>
     </row>
@@ -11043,10 +11107,10 @@
       <c r="H272">
         <v>6</v>
       </c>
-      <c r="I272" s="8">
+      <c r="I272" s="7">
         <v>8.8445499999999999</v>
       </c>
-      <c r="J272" s="14">
+      <c r="J272" s="13">
         <v>271</v>
       </c>
     </row>
@@ -11076,10 +11140,10 @@
       <c r="H273">
         <v>3</v>
       </c>
-      <c r="I273" s="8">
+      <c r="I273" s="7">
         <v>897.38109999999995</v>
       </c>
-      <c r="J273" s="14">
+      <c r="J273" s="13">
         <v>272</v>
       </c>
     </row>
@@ -11109,10 +11173,10 @@
       <c r="H274">
         <v>10</v>
       </c>
-      <c r="I274" s="8">
+      <c r="I274" s="7">
         <v>721.87865999999997</v>
       </c>
-      <c r="J274" s="14">
+      <c r="J274" s="13">
         <v>273</v>
       </c>
     </row>
@@ -11142,10 +11206,10 @@
       <c r="H275">
         <v>1</v>
       </c>
-      <c r="I275" s="8">
+      <c r="I275" s="7">
         <v>775.05409999999995</v>
       </c>
-      <c r="J275" s="14">
+      <c r="J275" s="13">
         <v>274</v>
       </c>
     </row>
@@ -11175,43 +11239,43 @@
       <c r="H276">
         <v>5</v>
       </c>
-      <c r="I276" s="8">
+      <c r="I276" s="7">
         <v>1016.55634</v>
       </c>
-      <c r="J276" s="14">
+      <c r="J276" s="13">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:10" ht="14.4" hidden="1" customHeight="1">
-      <c r="A277" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B277" s="16">
+      <c r="A277" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="15">
         <v>45733</v>
       </c>
-      <c r="C277" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D277" s="16">
+      <c r="C277" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D277" s="15">
         <f t="shared" si="4"/>
         <v>45733</v>
       </c>
-      <c r="E277" s="11" t="s">
+      <c r="E277" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="F277" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="G277" s="11" t="s">
+      <c r="F277" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G277" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H277" s="11">
-        <v>1</v>
-      </c>
-      <c r="I277" s="12">
+      <c r="H277" s="10">
+        <v>1</v>
+      </c>
+      <c r="I277" s="11">
         <v>806.59209999999996</v>
       </c>
-      <c r="J277" s="18">
+      <c r="J277" s="17">
         <v>276</v>
       </c>
     </row>
@@ -11241,10 +11305,10 @@
       <c r="H278">
         <v>9</v>
       </c>
-      <c r="I278" s="8">
+      <c r="I278" s="7">
         <v>332.10928888888901</v>
       </c>
-      <c r="J278" s="14">
+      <c r="J278" s="13">
         <v>277</v>
       </c>
     </row>
@@ -11274,10 +11338,10 @@
       <c r="H279">
         <v>1</v>
       </c>
-      <c r="I279" s="8">
+      <c r="I279" s="7">
         <v>332.10930000000002</v>
       </c>
-      <c r="J279" s="14">
+      <c r="J279" s="13">
         <v>278</v>
       </c>
     </row>
@@ -11307,10 +11371,10 @@
       <c r="H280">
         <v>1</v>
       </c>
-      <c r="I280" s="8">
+      <c r="I280" s="7">
         <v>851.13599999999997</v>
       </c>
-      <c r="J280" s="14">
+      <c r="J280" s="13">
         <v>279</v>
       </c>
     </row>
@@ -11340,10 +11404,10 @@
       <c r="H281">
         <v>6</v>
       </c>
-      <c r="I281" s="8">
+      <c r="I281" s="7">
         <v>5.6727999999999996</v>
       </c>
-      <c r="J281" s="14">
+      <c r="J281" s="13">
         <v>280</v>
       </c>
     </row>
@@ -11373,10 +11437,10 @@
       <c r="H282">
         <v>1</v>
       </c>
-      <c r="I282" s="8">
+      <c r="I282" s="7">
         <v>130.14019999999999</v>
       </c>
-      <c r="J282" s="14">
+      <c r="J282" s="13">
         <v>281</v>
       </c>
     </row>
@@ -11406,10 +11470,10 @@
       <c r="H283">
         <v>6</v>
       </c>
-      <c r="I283" s="8">
+      <c r="I283" s="7">
         <v>12.7735</v>
       </c>
-      <c r="J283" s="14">
+      <c r="J283" s="13">
         <v>282</v>
       </c>
     </row>
@@ -11439,10 +11503,10 @@
       <c r="H284">
         <v>10</v>
       </c>
-      <c r="I284" s="8">
+      <c r="I284" s="7">
         <v>1592.3792000000001</v>
       </c>
-      <c r="J284" s="14">
+      <c r="J284" s="13">
         <v>283</v>
       </c>
     </row>
@@ -11472,10 +11536,10 @@
       <c r="H285">
         <v>20</v>
       </c>
-      <c r="I285" s="8">
+      <c r="I285" s="7">
         <v>1004.927</v>
       </c>
-      <c r="J285" s="14">
+      <c r="J285" s="13">
         <v>284</v>
       </c>
     </row>
@@ -11505,10 +11569,10 @@
       <c r="H286">
         <v>15</v>
       </c>
-      <c r="I286" s="8">
+      <c r="I286" s="7">
         <v>1381.0908666666701</v>
       </c>
-      <c r="J286" s="14">
+      <c r="J286" s="13">
         <v>285</v>
       </c>
     </row>
@@ -11538,10 +11602,10 @@
       <c r="H287">
         <v>6</v>
       </c>
-      <c r="I287" s="8">
+      <c r="I287" s="7">
         <v>1257.14265</v>
       </c>
-      <c r="J287" s="14">
+      <c r="J287" s="13">
         <v>286</v>
       </c>
     </row>
@@ -11571,10 +11635,10 @@
       <c r="H288">
         <v>2</v>
       </c>
-      <c r="I288" s="8">
+      <c r="I288" s="7">
         <v>2508.66635</v>
       </c>
-      <c r="J288" s="14">
+      <c r="J288" s="13">
         <v>287</v>
       </c>
     </row>
@@ -11604,10 +11668,10 @@
       <c r="H289">
         <v>1</v>
       </c>
-      <c r="I289" s="8">
+      <c r="I289" s="7">
         <v>1853.8570999999999</v>
       </c>
-      <c r="J289" s="14">
+      <c r="J289" s="13">
         <v>288</v>
       </c>
     </row>
@@ -11637,10 +11701,10 @@
       <c r="H290">
         <v>1</v>
       </c>
-      <c r="I290" s="8">
+      <c r="I290" s="7">
         <v>242.1704</v>
       </c>
-      <c r="J290" s="14">
+      <c r="J290" s="13">
         <v>289</v>
       </c>
     </row>
@@ -11670,10 +11734,10 @@
       <c r="H291">
         <v>1</v>
       </c>
-      <c r="I291" s="8">
+      <c r="I291" s="7">
         <v>76.070999999999998</v>
       </c>
-      <c r="J291" s="14">
+      <c r="J291" s="13">
         <v>290</v>
       </c>
     </row>
@@ -11703,10 +11767,10 @@
       <c r="H292">
         <v>1</v>
       </c>
-      <c r="I292" s="8">
+      <c r="I292" s="7">
         <v>70.247500000000002</v>
       </c>
-      <c r="J292" s="14">
+      <c r="J292" s="13">
         <v>291</v>
       </c>
     </row>
@@ -11736,10 +11800,10 @@
       <c r="H293">
         <v>1</v>
       </c>
-      <c r="I293" s="8">
+      <c r="I293" s="7">
         <v>172.97190000000001</v>
       </c>
-      <c r="J293" s="14">
+      <c r="J293" s="13">
         <v>292</v>
       </c>
     </row>
@@ -11769,10 +11833,10 @@
       <c r="H294">
         <v>1</v>
       </c>
-      <c r="I294" s="8">
+      <c r="I294" s="7">
         <v>70.878</v>
       </c>
-      <c r="J294" s="14">
+      <c r="J294" s="13">
         <v>293</v>
       </c>
     </row>
@@ -11802,10 +11866,10 @@
       <c r="H295">
         <v>1</v>
       </c>
-      <c r="I295" s="8">
+      <c r="I295" s="7">
         <v>55.868299999999998</v>
       </c>
-      <c r="J295" s="14">
+      <c r="J295" s="13">
         <v>294</v>
       </c>
     </row>
@@ -11835,10 +11899,10 @@
       <c r="H296">
         <v>1</v>
       </c>
-      <c r="I296" s="8">
+      <c r="I296" s="7">
         <v>28.271899999999999</v>
       </c>
-      <c r="J296" s="14">
+      <c r="J296" s="13">
         <v>295</v>
       </c>
     </row>
@@ -11868,10 +11932,10 @@
       <c r="H297">
         <v>20</v>
       </c>
-      <c r="I297" s="8">
+      <c r="I297" s="7">
         <v>37</v>
       </c>
-      <c r="J297" s="14">
+      <c r="J297" s="13">
         <v>296</v>
       </c>
     </row>
@@ -11901,10 +11965,10 @@
       <c r="H298">
         <v>4</v>
       </c>
-      <c r="I298" s="8">
+      <c r="I298" s="7">
         <v>649.50120000000004</v>
       </c>
-      <c r="J298" s="14">
+      <c r="J298" s="13">
         <v>297</v>
       </c>
     </row>
@@ -11934,10 +11998,10 @@
       <c r="H299">
         <v>2</v>
       </c>
-      <c r="I299" s="8">
+      <c r="I299" s="7">
         <v>136.70405</v>
       </c>
-      <c r="J299" s="14">
+      <c r="J299" s="13">
         <v>298</v>
       </c>
     </row>
@@ -11967,10 +12031,10 @@
       <c r="H300">
         <v>2</v>
       </c>
-      <c r="I300" s="8">
+      <c r="I300" s="7">
         <v>100.36450000000001</v>
       </c>
-      <c r="J300" s="14">
+      <c r="J300" s="13">
         <v>299</v>
       </c>
     </row>
@@ -12000,10 +12064,10 @@
       <c r="H301">
         <v>2</v>
       </c>
-      <c r="I301" s="8">
+      <c r="I301" s="7">
         <v>33.42315</v>
       </c>
-      <c r="J301" s="14">
+      <c r="J301" s="13">
         <v>300</v>
       </c>
     </row>
@@ -12033,10 +12097,10 @@
       <c r="H302">
         <v>20</v>
       </c>
-      <c r="I302" s="8">
+      <c r="I302" s="7">
         <v>1926.3282549999999</v>
       </c>
-      <c r="J302" s="14">
+      <c r="J302" s="13">
         <v>301</v>
       </c>
     </row>
@@ -12066,10 +12130,10 @@
       <c r="H303">
         <v>30</v>
       </c>
-      <c r="I303" s="8">
+      <c r="I303" s="7">
         <v>779.11069999999995</v>
       </c>
-      <c r="J303" s="14">
+      <c r="J303" s="13">
         <v>302</v>
       </c>
     </row>
@@ -12099,10 +12163,10 @@
       <c r="H304">
         <v>12</v>
       </c>
-      <c r="I304" s="8">
+      <c r="I304" s="7">
         <v>1395.23113333333</v>
       </c>
-      <c r="J304" s="14">
+      <c r="J304" s="13">
         <v>303</v>
       </c>
     </row>
@@ -12132,10 +12196,10 @@
       <c r="H305">
         <v>1</v>
       </c>
-      <c r="I305" s="8">
+      <c r="I305" s="7">
         <v>312.79430000000002</v>
       </c>
-      <c r="J305" s="14">
+      <c r="J305" s="13">
         <v>304</v>
       </c>
     </row>
@@ -12165,10 +12229,10 @@
       <c r="H306">
         <v>20</v>
       </c>
-      <c r="I306" s="8">
+      <c r="I306" s="7">
         <v>3370.3265000000001</v>
       </c>
-      <c r="J306" s="14">
+      <c r="J306" s="13">
         <v>305</v>
       </c>
     </row>
@@ -12198,10 +12262,10 @@
       <c r="H307">
         <v>4</v>
       </c>
-      <c r="I307" s="8">
+      <c r="I307" s="7">
         <v>940.09254999999996</v>
       </c>
-      <c r="J307" s="14">
+      <c r="J307" s="13">
         <v>306</v>
       </c>
     </row>
@@ -12231,10 +12295,10 @@
       <c r="H308">
         <v>5</v>
       </c>
-      <c r="I308" s="8">
+      <c r="I308" s="7">
         <v>991.64688000000001</v>
       </c>
-      <c r="J308" s="14">
+      <c r="J308" s="13">
         <v>307</v>
       </c>
     </row>
@@ -12264,10 +12328,10 @@
       <c r="H309">
         <v>2</v>
       </c>
-      <c r="I309" s="8">
+      <c r="I309" s="7">
         <v>3320.8462</v>
       </c>
-      <c r="J309" s="14">
+      <c r="J309" s="13">
         <v>308</v>
       </c>
     </row>
@@ -12297,10 +12361,10 @@
       <c r="H310">
         <v>1</v>
       </c>
-      <c r="I310" s="8">
+      <c r="I310" s="7">
         <v>652.70320000000004</v>
       </c>
-      <c r="J310" s="14">
+      <c r="J310" s="13">
         <v>309</v>
       </c>
     </row>
@@ -12330,10 +12394,10 @@
       <c r="H311">
         <v>30</v>
       </c>
-      <c r="I311" s="8">
+      <c r="I311" s="7">
         <v>1149.60524333333</v>
       </c>
-      <c r="J311" s="14">
+      <c r="J311" s="13">
         <v>310</v>
       </c>
     </row>
@@ -12363,10 +12427,10 @@
       <c r="H312">
         <v>4</v>
       </c>
-      <c r="I312" s="8">
+      <c r="I312" s="7">
         <v>6.5</v>
       </c>
-      <c r="J312" s="14">
+      <c r="J312" s="13">
         <v>311</v>
       </c>
     </row>
@@ -12396,10 +12460,10 @@
       <c r="H313">
         <v>8</v>
       </c>
-      <c r="I313" s="8">
+      <c r="I313" s="7">
         <v>5.9385374999999998</v>
       </c>
-      <c r="J313" s="14">
+      <c r="J313" s="13">
         <v>312</v>
       </c>
     </row>
@@ -12429,10 +12493,10 @@
       <c r="H314">
         <v>10</v>
       </c>
-      <c r="I314" s="8">
+      <c r="I314" s="7">
         <v>6.2572200000000002</v>
       </c>
-      <c r="J314" s="14">
+      <c r="J314" s="13">
         <v>313</v>
       </c>
     </row>
@@ -12462,10 +12526,10 @@
       <c r="H315">
         <v>4</v>
       </c>
-      <c r="I315" s="8">
+      <c r="I315" s="7">
         <v>1.52</v>
       </c>
-      <c r="J315" s="14">
+      <c r="J315" s="13">
         <v>314</v>
       </c>
     </row>
@@ -12495,14 +12559,14 @@
       <c r="H316">
         <v>8</v>
       </c>
-      <c r="I316" s="8">
+      <c r="I316" s="7">
         <v>13.7080375</v>
       </c>
-      <c r="J316" s="14">
+      <c r="J316" s="13">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="317" spans="1:10" ht="14.4" customHeight="1">
       <c r="A317" t="s">
         <v>10</v>
       </c>
@@ -12528,14 +12592,14 @@
       <c r="H317">
         <v>1</v>
       </c>
-      <c r="I317" s="8">
+      <c r="I317" s="20">
         <v>189.34729999999999</v>
       </c>
-      <c r="J317" s="14">
+      <c r="J317" s="13">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="318" spans="1:10" ht="14.4" customHeight="1">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -12561,14 +12625,14 @@
       <c r="H318">
         <v>35</v>
       </c>
-      <c r="I318" s="8">
+      <c r="I318" s="20">
         <v>3925.1673028571399</v>
       </c>
-      <c r="J318" s="14">
+      <c r="J318" s="13">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="319" spans="1:10" ht="14.4" customHeight="1">
       <c r="A319" t="s">
         <v>10</v>
       </c>
@@ -12594,14 +12658,14 @@
       <c r="H319">
         <v>2</v>
       </c>
-      <c r="I319" s="8">
+      <c r="I319" s="20">
         <v>3988.7203500000001</v>
       </c>
-      <c r="J319" s="14">
+      <c r="J319" s="13">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="320" spans="1:10" ht="14.4" customHeight="1">
       <c r="A320" t="s">
         <v>10</v>
       </c>
@@ -12627,14 +12691,14 @@
       <c r="H320">
         <v>2</v>
       </c>
-      <c r="I320" s="8">
+      <c r="I320" s="20">
         <v>3988.7203500000001</v>
       </c>
-      <c r="J320" s="14">
+      <c r="J320" s="13">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="321" spans="1:10" ht="14.4" customHeight="1">
       <c r="A321" t="s">
         <v>10</v>
       </c>
@@ -12660,14 +12724,14 @@
       <c r="H321">
         <v>10</v>
       </c>
-      <c r="I321" s="8">
+      <c r="I321" s="20">
         <v>2949.01152</v>
       </c>
-      <c r="J321" s="14">
+      <c r="J321" s="13">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="322" spans="1:10" ht="14.4" customHeight="1">
       <c r="A322" t="s">
         <v>10</v>
       </c>
@@ -12693,14 +12757,14 @@
       <c r="H322">
         <v>14</v>
       </c>
-      <c r="I322" s="8">
+      <c r="I322" s="20">
         <v>2857.1648500000001</v>
       </c>
-      <c r="J322" s="14">
+      <c r="J322" s="13">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="323" spans="1:10" ht="14.4" customHeight="1">
       <c r="A323" t="s">
         <v>10</v>
       </c>
@@ -12726,14 +12790,14 @@
       <c r="H323">
         <v>8</v>
       </c>
-      <c r="I323" s="8">
+      <c r="I323" s="20">
         <v>3077.42425</v>
       </c>
-      <c r="J323" s="14">
+      <c r="J323" s="13">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="324" spans="1:10" ht="14.4" customHeight="1">
       <c r="A324" t="s">
         <v>10</v>
       </c>
@@ -12759,14 +12823,14 @@
       <c r="H324">
         <v>10</v>
       </c>
-      <c r="I324" s="8">
+      <c r="I324" s="20">
         <v>2422.1857199999999</v>
       </c>
-      <c r="J324" s="14">
+      <c r="J324" s="13">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="325" spans="1:10" ht="14.4" customHeight="1">
       <c r="A325" t="s">
         <v>10</v>
       </c>
@@ -12792,14 +12856,14 @@
       <c r="H325">
         <v>1</v>
       </c>
-      <c r="I325" s="8">
+      <c r="I325" s="20">
         <v>3489.5592000000001</v>
       </c>
-      <c r="J325" s="14">
+      <c r="J325" s="13">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="326" spans="1:10" ht="14.4" customHeight="1">
       <c r="A326" t="s">
         <v>10</v>
       </c>
@@ -12825,14 +12889,14 @@
       <c r="H326">
         <v>1</v>
       </c>
-      <c r="I326" s="8">
-        <v>0</v>
-      </c>
-      <c r="J326" s="14">
+      <c r="I326" s="20">
+        <v>1E-4</v>
+      </c>
+      <c r="J326" s="13">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="327" spans="1:10" ht="14.4" customHeight="1">
       <c r="A327" t="s">
         <v>10</v>
       </c>
@@ -12858,14 +12922,14 @@
       <c r="H327">
         <v>1</v>
       </c>
-      <c r="I327" s="8">
+      <c r="I327" s="20">
         <v>2186.7835</v>
       </c>
-      <c r="J327" s="14">
+      <c r="J327" s="13">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="328" spans="1:10" ht="14.4" customHeight="1">
       <c r="A328" t="s">
         <v>10</v>
       </c>
@@ -12891,14 +12955,14 @@
       <c r="H328">
         <v>1</v>
       </c>
-      <c r="I328" s="8">
+      <c r="I328" s="20">
         <v>1073.2</v>
       </c>
-      <c r="J328" s="14">
+      <c r="J328" s="13">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="329" spans="1:10" ht="14.4" customHeight="1">
       <c r="A329" t="s">
         <v>10</v>
       </c>
@@ -12924,14 +12988,14 @@
       <c r="H329">
         <v>1</v>
       </c>
-      <c r="I329" s="8">
+      <c r="I329" s="20">
         <v>329.46120000000002</v>
       </c>
-      <c r="J329" s="14">
+      <c r="J329" s="13">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="14.4" hidden="1" customHeight="1">
+    <row r="330" spans="1:10" ht="14.4" customHeight="1">
       <c r="A330" t="s">
         <v>10</v>
       </c>
@@ -12957,10 +13021,10 @@
       <c r="H330">
         <v>1</v>
       </c>
-      <c r="I330" s="8">
+      <c r="I330" s="20">
         <v>128.84110000000001</v>
       </c>
-      <c r="J330" s="14">
+      <c r="J330" s="13">
         <v>329</v>
       </c>
     </row>
@@ -12990,10 +13054,10 @@
       <c r="H331">
         <v>1</v>
       </c>
-      <c r="I331" s="8">
+      <c r="I331" s="7">
         <v>171</v>
       </c>
-      <c r="J331" s="14">
+      <c r="J331" s="13">
         <v>330</v>
       </c>
     </row>
@@ -13023,10 +13087,10 @@
       <c r="H332">
         <v>1</v>
       </c>
-      <c r="I332" s="8">
+      <c r="I332" s="7">
         <v>1847.6672000000001</v>
       </c>
-      <c r="J332" s="14">
+      <c r="J332" s="13">
         <v>331</v>
       </c>
     </row>
@@ -13056,10 +13120,10 @@
       <c r="H333">
         <v>1</v>
       </c>
-      <c r="I333" s="8">
+      <c r="I333" s="7">
         <v>258.68669999999997</v>
       </c>
-      <c r="J333" s="14">
+      <c r="J333" s="13">
         <v>332</v>
       </c>
     </row>
@@ -13089,10 +13153,10 @@
       <c r="H334">
         <v>1</v>
       </c>
-      <c r="I334" s="8">
+      <c r="I334" s="7">
         <v>258.68669999999997</v>
       </c>
-      <c r="J334" s="14">
+      <c r="J334" s="13">
         <v>333</v>
       </c>
     </row>
@@ -13122,10 +13186,10 @@
       <c r="H335">
         <v>3</v>
       </c>
-      <c r="I335" s="8">
+      <c r="I335" s="7">
         <v>429.32503333333301</v>
       </c>
-      <c r="J335" s="14">
+      <c r="J335" s="13">
         <v>334</v>
       </c>
     </row>
@@ -13155,10 +13219,10 @@
       <c r="H336">
         <v>1</v>
       </c>
-      <c r="I336" s="8">
+      <c r="I336" s="7">
         <v>312.81360000000001</v>
       </c>
-      <c r="J336" s="14">
+      <c r="J336" s="13">
         <v>335</v>
       </c>
     </row>
@@ -13188,10 +13252,10 @@
       <c r="H337">
         <v>1</v>
       </c>
-      <c r="I337" s="8">
+      <c r="I337" s="7">
         <v>317.4658</v>
       </c>
-      <c r="J337" s="14">
+      <c r="J337" s="13">
         <v>336</v>
       </c>
     </row>
@@ -13221,10 +13285,10 @@
       <c r="H338">
         <v>1</v>
       </c>
-      <c r="I338" s="8">
+      <c r="I338" s="7">
         <v>2866.1891000000001</v>
       </c>
-      <c r="J338" s="14">
+      <c r="J338" s="13">
         <v>337</v>
       </c>
     </row>
@@ -13254,10 +13318,10 @@
       <c r="H339">
         <v>9</v>
       </c>
-      <c r="I339" s="8">
+      <c r="I339" s="7">
         <v>1594.55915555556</v>
       </c>
-      <c r="J339" s="14">
+      <c r="J339" s="13">
         <v>338</v>
       </c>
     </row>
@@ -13287,10 +13351,10 @@
       <c r="H340">
         <v>9</v>
       </c>
-      <c r="I340" s="8">
+      <c r="I340" s="7">
         <v>292.68675555555598</v>
       </c>
-      <c r="J340" s="14">
+      <c r="J340" s="13">
         <v>339</v>
       </c>
     </row>
@@ -13320,10 +13384,10 @@
       <c r="H341">
         <v>1</v>
       </c>
-      <c r="I341" s="8">
+      <c r="I341" s="7">
         <v>263.423</v>
       </c>
-      <c r="J341" s="14">
+      <c r="J341" s="13">
         <v>340</v>
       </c>
     </row>
@@ -13353,10 +13417,10 @@
       <c r="H342">
         <v>1</v>
       </c>
-      <c r="I342" s="8">
+      <c r="I342" s="7">
         <v>1624.2374</v>
       </c>
-      <c r="J342" s="14">
+      <c r="J342" s="13">
         <v>341</v>
       </c>
     </row>
@@ -13386,10 +13450,10 @@
       <c r="H343">
         <v>9</v>
       </c>
-      <c r="I343" s="8">
+      <c r="I343" s="7">
         <v>83.668544444444393</v>
       </c>
-      <c r="J343" s="14">
+      <c r="J343" s="13">
         <v>342</v>
       </c>
     </row>
@@ -13419,10 +13483,10 @@
       <c r="H344">
         <v>3</v>
       </c>
-      <c r="I344" s="8">
+      <c r="I344" s="7">
         <v>48.321399999999997</v>
       </c>
-      <c r="J344" s="14">
+      <c r="J344" s="13">
         <v>343</v>
       </c>
     </row>
@@ -13452,10 +13516,10 @@
       <c r="H345">
         <v>1</v>
       </c>
-      <c r="I345" s="8">
+      <c r="I345" s="7">
         <v>43.531599999999997</v>
       </c>
-      <c r="J345" s="14">
+      <c r="J345" s="13">
         <v>344</v>
       </c>
     </row>
@@ -13485,10 +13549,10 @@
       <c r="H346">
         <v>1</v>
       </c>
-      <c r="I346" s="8">
+      <c r="I346" s="7">
         <v>60.360500000000002</v>
       </c>
-      <c r="J346" s="14">
+      <c r="J346" s="13">
         <v>345</v>
       </c>
     </row>
@@ -13518,10 +13582,10 @@
       <c r="H347">
         <v>1</v>
       </c>
-      <c r="I347" s="8">
+      <c r="I347" s="7">
         <v>61.070500000000003</v>
       </c>
-      <c r="J347" s="14">
+      <c r="J347" s="13">
         <v>346</v>
       </c>
     </row>
@@ -13551,10 +13615,10 @@
       <c r="H348">
         <v>3</v>
       </c>
-      <c r="I348" s="8">
+      <c r="I348" s="7">
         <v>26.190566666666701</v>
       </c>
-      <c r="J348" s="14">
+      <c r="J348" s="13">
         <v>347</v>
       </c>
     </row>
@@ -13584,10 +13648,10 @@
       <c r="H349">
         <v>1</v>
       </c>
-      <c r="I349" s="8">
+      <c r="I349" s="7">
         <v>23.214300000000001</v>
       </c>
-      <c r="J349" s="14">
+      <c r="J349" s="13">
         <v>348</v>
       </c>
     </row>
@@ -13617,10 +13681,10 @@
       <c r="H350">
         <v>1</v>
       </c>
-      <c r="I350" s="8">
+      <c r="I350" s="7">
         <v>28.107299999999999</v>
       </c>
-      <c r="J350" s="14">
+      <c r="J350" s="13">
         <v>349</v>
       </c>
     </row>
@@ -13650,10 +13714,10 @@
       <c r="H351">
         <v>1</v>
       </c>
-      <c r="I351" s="8">
+      <c r="I351" s="7">
         <v>28.313700000000001</v>
       </c>
-      <c r="J351" s="14">
+      <c r="J351" s="13">
         <v>350</v>
       </c>
     </row>
@@ -13683,10 +13747,10 @@
       <c r="H352">
         <v>3</v>
       </c>
-      <c r="I352" s="8">
+      <c r="I352" s="7">
         <v>30.121766666666701</v>
       </c>
-      <c r="J352" s="14">
+      <c r="J352" s="13">
         <v>351</v>
       </c>
     </row>
@@ -13716,10 +13780,10 @@
       <c r="H353">
         <v>1</v>
       </c>
-      <c r="I353" s="8">
+      <c r="I353" s="7">
         <v>67.726399999999998</v>
       </c>
-      <c r="J353" s="14">
+      <c r="J353" s="13">
         <v>352</v>
       </c>
     </row>
@@ -13749,10 +13813,10 @@
       <c r="H354">
         <v>1</v>
       </c>
-      <c r="I354" s="8">
+      <c r="I354" s="7">
         <v>98.768900000000002</v>
       </c>
-      <c r="J354" s="14">
+      <c r="J354" s="13">
         <v>353</v>
       </c>
     </row>
@@ -13782,10 +13846,10 @@
       <c r="H355">
         <v>1</v>
       </c>
-      <c r="I355" s="8">
+      <c r="I355" s="7">
         <v>100.0788</v>
       </c>
-      <c r="J355" s="14">
+      <c r="J355" s="13">
         <v>354</v>
       </c>
     </row>
@@ -13815,10 +13879,10 @@
       <c r="H356">
         <v>3</v>
       </c>
-      <c r="I356" s="8">
+      <c r="I356" s="7">
         <v>99.6167333333333</v>
       </c>
-      <c r="J356" s="14">
+      <c r="J356" s="13">
         <v>355</v>
       </c>
     </row>
@@ -13848,10 +13912,10 @@
       <c r="H357">
         <v>1</v>
       </c>
-      <c r="I357" s="8">
+      <c r="I357" s="7">
         <v>70.247500000000002</v>
       </c>
-      <c r="J357" s="14">
+      <c r="J357" s="13">
         <v>356</v>
       </c>
     </row>
@@ -13881,10 +13945,10 @@
       <c r="H358">
         <v>1</v>
       </c>
-      <c r="I358" s="8">
+      <c r="I358" s="7">
         <v>188.08949999999999</v>
       </c>
-      <c r="J358" s="14">
+      <c r="J358" s="13">
         <v>357</v>
       </c>
     </row>
@@ -13914,10 +13978,10 @@
       <c r="H359">
         <v>19</v>
       </c>
-      <c r="I359" s="8">
+      <c r="I359" s="7">
         <v>52.451484210526303</v>
       </c>
-      <c r="J359" s="14">
+      <c r="J359" s="13">
         <v>358</v>
       </c>
     </row>
@@ -13947,10 +14011,10 @@
       <c r="H360">
         <v>1</v>
       </c>
-      <c r="I360" s="8">
+      <c r="I360" s="7">
         <v>251.55330000000001</v>
       </c>
-      <c r="J360" s="14">
+      <c r="J360" s="13">
         <v>359</v>
       </c>
     </row>
@@ -13980,10 +14044,10 @@
       <c r="H361">
         <v>1</v>
       </c>
-      <c r="I361" s="8">
+      <c r="I361" s="7">
         <v>255.24879999999999</v>
       </c>
-      <c r="J361" s="14">
+      <c r="J361" s="13">
         <v>360</v>
       </c>
     </row>
@@ -14013,10 +14077,10 @@
       <c r="H362">
         <v>1</v>
       </c>
-      <c r="I362" s="8">
+      <c r="I362" s="7">
         <v>368.98939999999999</v>
       </c>
-      <c r="J362" s="14">
+      <c r="J362" s="13">
         <v>361</v>
       </c>
     </row>
@@ -14046,10 +14110,10 @@
       <c r="H363">
         <v>9</v>
       </c>
-      <c r="I363" s="8">
+      <c r="I363" s="7">
         <v>196.70920000000001</v>
       </c>
-      <c r="J363" s="14">
+      <c r="J363" s="13">
         <v>362</v>
       </c>
     </row>
@@ -14079,10 +14143,10 @@
       <c r="H364">
         <v>1</v>
       </c>
-      <c r="I364" s="8">
+      <c r="I364" s="7">
         <v>187.82820000000001</v>
       </c>
-      <c r="J364" s="14">
+      <c r="J364" s="13">
         <v>363</v>
       </c>
     </row>
@@ -14112,10 +14176,10 @@
       <c r="H365">
         <v>1</v>
       </c>
-      <c r="I365" s="8">
+      <c r="I365" s="7">
         <v>187.82820000000001</v>
       </c>
-      <c r="J365" s="14">
+      <c r="J365" s="13">
         <v>364</v>
       </c>
     </row>
@@ -14145,10 +14209,10 @@
       <c r="H366">
         <v>1</v>
       </c>
-      <c r="I366" s="8">
+      <c r="I366" s="7">
         <v>20.501999999999999</v>
       </c>
-      <c r="J366" s="14">
+      <c r="J366" s="13">
         <v>365</v>
       </c>
     </row>
@@ -14178,10 +14242,10 @@
       <c r="H367">
         <v>4</v>
       </c>
-      <c r="I367" s="8">
+      <c r="I367" s="7">
         <v>5133.0865000000003</v>
       </c>
-      <c r="J367" s="14">
+      <c r="J367" s="13">
         <v>366</v>
       </c>
     </row>
@@ -14211,10 +14275,10 @@
       <c r="H368">
         <v>30</v>
       </c>
-      <c r="I368" s="8">
+      <c r="I368" s="7">
         <v>1954.0763300000001</v>
       </c>
-      <c r="J368" s="14">
+      <c r="J368" s="13">
         <v>367</v>
       </c>
     </row>
@@ -14244,10 +14308,10 @@
       <c r="H369">
         <v>30</v>
       </c>
-      <c r="I369" s="8">
+      <c r="I369" s="7">
         <v>1806.7309866666701</v>
       </c>
-      <c r="J369" s="14">
+      <c r="J369" s="13">
         <v>368</v>
       </c>
     </row>
@@ -14277,10 +14341,10 @@
       <c r="H370">
         <v>3</v>
       </c>
-      <c r="I370" s="8">
+      <c r="I370" s="7">
         <v>17</v>
       </c>
-      <c r="J370" s="14">
+      <c r="J370" s="13">
         <v>369</v>
       </c>
     </row>
@@ -14310,10 +14374,10 @@
       <c r="H371">
         <v>10</v>
       </c>
-      <c r="I371" s="8">
+      <c r="I371" s="7">
         <v>5328.8341</v>
       </c>
-      <c r="J371" s="14">
+      <c r="J371" s="13">
         <v>370</v>
       </c>
     </row>
@@ -14343,10 +14407,10 @@
       <c r="H372">
         <v>20</v>
       </c>
-      <c r="I372" s="8">
+      <c r="I372" s="7">
         <v>7556.1603850000001</v>
       </c>
-      <c r="J372" s="14">
+      <c r="J372" s="13">
         <v>371</v>
       </c>
     </row>
@@ -14376,10 +14440,10 @@
       <c r="H373">
         <v>30</v>
       </c>
-      <c r="I373" s="8">
+      <c r="I373" s="7">
         <v>1394.65803333333</v>
       </c>
-      <c r="J373" s="14">
+      <c r="J373" s="13">
         <v>372</v>
       </c>
     </row>
@@ -14409,10 +14473,10 @@
       <c r="H374">
         <v>3</v>
       </c>
-      <c r="I374" s="8">
+      <c r="I374" s="7">
         <v>1003.2303000000001</v>
       </c>
-      <c r="J374" s="14">
+      <c r="J374" s="13">
         <v>373</v>
       </c>
     </row>
@@ -14442,10 +14506,10 @@
       <c r="H375">
         <v>2</v>
       </c>
-      <c r="I375" s="8">
+      <c r="I375" s="7">
         <v>2191.3249500000002</v>
       </c>
-      <c r="J375" s="14">
+      <c r="J375" s="13">
         <v>374</v>
       </c>
     </row>
@@ -14475,10 +14539,10 @@
       <c r="H376">
         <v>1</v>
       </c>
-      <c r="I376" s="8">
+      <c r="I376" s="7">
         <v>247.17529999999999</v>
       </c>
-      <c r="J376" s="14">
+      <c r="J376" s="13">
         <v>375</v>
       </c>
     </row>
@@ -14508,10 +14572,10 @@
       <c r="H377">
         <v>1</v>
       </c>
-      <c r="I377" s="8">
+      <c r="I377" s="7">
         <v>333.14</v>
       </c>
-      <c r="J377" s="14">
+      <c r="J377" s="13">
         <v>376</v>
       </c>
     </row>
@@ -14541,10 +14605,10 @@
       <c r="H378">
         <v>1</v>
       </c>
-      <c r="I378" s="8">
+      <c r="I378" s="7">
         <v>324.09120000000001</v>
       </c>
-      <c r="J378" s="14">
+      <c r="J378" s="13">
         <v>377</v>
       </c>
     </row>
@@ -14574,10 +14638,10 @@
       <c r="H379">
         <v>1</v>
       </c>
-      <c r="I379" s="8">
+      <c r="I379" s="7">
         <v>1675.0406</v>
       </c>
-      <c r="J379" s="14">
+      <c r="J379" s="13">
         <v>378</v>
       </c>
     </row>
@@ -14607,10 +14671,10 @@
       <c r="H380">
         <v>1</v>
       </c>
-      <c r="I380" s="8">
+      <c r="I380" s="7">
         <v>737.72199999999998</v>
       </c>
-      <c r="J380" s="14">
+      <c r="J380" s="13">
         <v>379</v>
       </c>
     </row>
@@ -14640,10 +14704,10 @@
       <c r="H381">
         <v>1</v>
       </c>
-      <c r="I381" s="8">
+      <c r="I381" s="7">
         <v>1077.8858</v>
       </c>
-      <c r="J381" s="14">
+      <c r="J381" s="13">
         <v>380</v>
       </c>
     </row>
@@ -14673,10 +14737,10 @@
       <c r="H382">
         <v>1</v>
       </c>
-      <c r="I382" s="8">
+      <c r="I382" s="7">
         <v>1047.4853000000001</v>
       </c>
-      <c r="J382" s="14">
+      <c r="J382" s="13">
         <v>381</v>
       </c>
     </row>
@@ -14706,10 +14770,10 @@
       <c r="H383">
         <v>1</v>
       </c>
-      <c r="I383" s="8">
+      <c r="I383" s="7">
         <v>1074.6190999999999</v>
       </c>
-      <c r="J383" s="14">
+      <c r="J383" s="13">
         <v>382</v>
       </c>
     </row>
@@ -14739,10 +14803,10 @@
       <c r="H384">
         <v>1</v>
       </c>
-      <c r="I384" s="8">
+      <c r="I384" s="7">
         <v>613.91769999999997</v>
       </c>
-      <c r="J384" s="14">
+      <c r="J384" s="13">
         <v>383</v>
       </c>
     </row>
@@ -14772,10 +14836,10 @@
       <c r="H385">
         <v>1</v>
       </c>
-      <c r="I385" s="8">
+      <c r="I385" s="7">
         <v>589.37260000000003</v>
       </c>
-      <c r="J385" s="14">
+      <c r="J385" s="13">
         <v>384</v>
       </c>
     </row>
@@ -14805,10 +14869,10 @@
       <c r="H386">
         <v>1</v>
       </c>
-      <c r="I386" s="8">
+      <c r="I386" s="7">
         <v>272.81060000000002</v>
       </c>
-      <c r="J386" s="14">
+      <c r="J386" s="13">
         <v>385</v>
       </c>
     </row>
@@ -14838,10 +14902,10 @@
       <c r="H387">
         <v>1</v>
       </c>
-      <c r="I387" s="8">
+      <c r="I387" s="7">
         <v>523.4144</v>
       </c>
-      <c r="J387" s="14">
+      <c r="J387" s="13">
         <v>386</v>
       </c>
     </row>
@@ -14871,10 +14935,10 @@
       <c r="H388">
         <v>1</v>
       </c>
-      <c r="I388" s="8">
+      <c r="I388" s="7">
         <v>538.53279999999995</v>
       </c>
-      <c r="J388" s="14">
+      <c r="J388" s="13">
         <v>387</v>
       </c>
     </row>
@@ -14904,10 +14968,10 @@
       <c r="H389">
         <v>1</v>
       </c>
-      <c r="I389" s="8">
+      <c r="I389" s="7">
         <v>428.23320000000001</v>
       </c>
-      <c r="J389" s="14">
+      <c r="J389" s="13">
         <v>388</v>
       </c>
     </row>
@@ -14937,10 +15001,10 @@
       <c r="H390">
         <v>1</v>
       </c>
-      <c r="I390" s="8">
+      <c r="I390" s="7">
         <v>461.49009999999998</v>
       </c>
-      <c r="J390" s="14">
+      <c r="J390" s="13">
         <v>389</v>
       </c>
     </row>
@@ -14970,10 +15034,10 @@
       <c r="H391">
         <v>1</v>
       </c>
-      <c r="I391" s="8">
+      <c r="I391" s="7">
         <v>447.21690000000001</v>
       </c>
-      <c r="J391" s="14">
+      <c r="J391" s="13">
         <v>390</v>
       </c>
     </row>
@@ -15003,10 +15067,10 @@
       <c r="H392">
         <v>1</v>
       </c>
-      <c r="I392" s="8">
+      <c r="I392" s="7">
         <v>866.19129999999996</v>
       </c>
-      <c r="J392" s="14">
+      <c r="J392" s="13">
         <v>391</v>
       </c>
     </row>
@@ -15036,10 +15100,10 @@
       <c r="H393">
         <v>1</v>
       </c>
-      <c r="I393" s="8">
+      <c r="I393" s="7">
         <v>227.0008</v>
       </c>
-      <c r="J393" s="14">
+      <c r="J393" s="13">
         <v>392</v>
       </c>
     </row>
@@ -15069,10 +15133,10 @@
       <c r="H394">
         <v>1</v>
       </c>
-      <c r="I394" s="8">
+      <c r="I394" s="7">
         <v>227.0008</v>
       </c>
-      <c r="J394" s="14">
+      <c r="J394" s="13">
         <v>393</v>
       </c>
     </row>
@@ -15102,10 +15166,10 @@
       <c r="H395">
         <v>1</v>
       </c>
-      <c r="I395" s="8">
+      <c r="I395" s="7">
         <v>518.28489999999999</v>
       </c>
-      <c r="J395" s="14">
+      <c r="J395" s="13">
         <v>394</v>
       </c>
     </row>
@@ -15135,10 +15199,10 @@
       <c r="H396">
         <v>1</v>
       </c>
-      <c r="I396" s="8">
+      <c r="I396" s="7">
         <v>77.441699999999997</v>
       </c>
-      <c r="J396" s="14">
+      <c r="J396" s="13">
         <v>395</v>
       </c>
     </row>
@@ -15168,10 +15232,10 @@
       <c r="H397">
         <v>2</v>
       </c>
-      <c r="I397" s="8">
+      <c r="I397" s="7">
         <v>70.359350000000006</v>
       </c>
-      <c r="J397" s="14">
+      <c r="J397" s="13">
         <v>396</v>
       </c>
     </row>
@@ -15201,10 +15265,10 @@
       <c r="H398">
         <v>1</v>
       </c>
-      <c r="I398" s="8">
+      <c r="I398" s="7">
         <v>67.040499999999994</v>
       </c>
-      <c r="J398" s="14">
+      <c r="J398" s="13">
         <v>397</v>
       </c>
     </row>
@@ -15234,10 +15298,10 @@
       <c r="H399">
         <v>1</v>
       </c>
-      <c r="I399" s="8">
+      <c r="I399" s="7">
         <v>63.241799999999998</v>
       </c>
-      <c r="J399" s="14">
+      <c r="J399" s="13">
         <v>398</v>
       </c>
     </row>
@@ -15267,10 +15331,10 @@
       <c r="H400">
         <v>1</v>
       </c>
-      <c r="I400" s="8">
+      <c r="I400" s="7">
         <v>46.445099999999996</v>
       </c>
-      <c r="J400" s="14">
+      <c r="J400" s="13">
         <v>399</v>
       </c>
     </row>
@@ -15300,10 +15364,10 @@
       <c r="H401">
         <v>2</v>
       </c>
-      <c r="I401" s="8">
+      <c r="I401" s="7">
         <v>70.247500000000002</v>
       </c>
-      <c r="J401" s="14">
+      <c r="J401" s="13">
         <v>400</v>
       </c>
     </row>
@@ -15333,10 +15397,10 @@
       <c r="H402">
         <v>1</v>
       </c>
-      <c r="I402" s="8">
+      <c r="I402" s="7">
         <v>185.45590000000001</v>
       </c>
-      <c r="J402" s="14">
+      <c r="J402" s="13">
         <v>401</v>
       </c>
     </row>
@@ -15366,10 +15430,10 @@
       <c r="H403">
         <v>1</v>
       </c>
-      <c r="I403" s="8">
+      <c r="I403" s="7">
         <v>53.847299999999997</v>
       </c>
-      <c r="J403" s="14">
+      <c r="J403" s="13">
         <v>402</v>
       </c>
     </row>
@@ -15399,10 +15463,10 @@
       <c r="H404">
         <v>1</v>
       </c>
-      <c r="I404" s="8">
+      <c r="I404" s="7">
         <v>338.96089999999998</v>
       </c>
-      <c r="J404" s="14">
+      <c r="J404" s="13">
         <v>403</v>
       </c>
     </row>
@@ -15432,10 +15496,10 @@
       <c r="H405">
         <v>1</v>
       </c>
-      <c r="I405" s="8">
+      <c r="I405" s="7">
         <v>271.44529999999997</v>
       </c>
-      <c r="J405" s="14">
+      <c r="J405" s="13">
         <v>404</v>
       </c>
     </row>
@@ -15465,10 +15529,10 @@
       <c r="H406">
         <v>1</v>
       </c>
-      <c r="I406" s="8">
+      <c r="I406" s="7">
         <v>264.08440000000002</v>
       </c>
-      <c r="J406" s="14">
+      <c r="J406" s="13">
         <v>405</v>
       </c>
     </row>
@@ -15498,10 +15562,10 @@
       <c r="H407">
         <v>1</v>
       </c>
-      <c r="I407" s="8">
+      <c r="I407" s="7">
         <v>270.65440000000001</v>
       </c>
-      <c r="J407" s="14">
+      <c r="J407" s="13">
         <v>406</v>
       </c>
     </row>
@@ -15531,10 +15595,10 @@
       <c r="H408">
         <v>1</v>
       </c>
-      <c r="I408" s="8">
+      <c r="I408" s="7">
         <v>209.64580000000001</v>
       </c>
-      <c r="J408" s="14">
+      <c r="J408" s="13">
         <v>407</v>
       </c>
     </row>
@@ -15564,10 +15628,10 @@
       <c r="H409">
         <v>1</v>
       </c>
-      <c r="I409" s="8">
+      <c r="I409" s="7">
         <v>334.10480000000001</v>
       </c>
-      <c r="J409" s="14">
+      <c r="J409" s="13">
         <v>408</v>
       </c>
     </row>
@@ -15597,10 +15661,10 @@
       <c r="H410">
         <v>1</v>
       </c>
-      <c r="I410" s="8">
+      <c r="I410" s="7">
         <v>325.03789999999998</v>
       </c>
-      <c r="J410" s="14">
+      <c r="J410" s="13">
         <v>409</v>
       </c>
     </row>
@@ -15630,10 +15694,10 @@
       <c r="H411">
         <v>1</v>
       </c>
-      <c r="I411" s="8">
+      <c r="I411" s="7">
         <v>176.46270000000001</v>
       </c>
-      <c r="J411" s="14">
+      <c r="J411" s="13">
         <v>410</v>
       </c>
     </row>
@@ -15663,10 +15727,10 @@
       <c r="H412">
         <v>1</v>
       </c>
-      <c r="I412" s="8">
+      <c r="I412" s="7">
         <v>274.08819999999997</v>
       </c>
-      <c r="J412" s="14">
+      <c r="J412" s="13">
         <v>411</v>
       </c>
     </row>
@@ -15696,10 +15760,10 @@
       <c r="H413">
         <v>1</v>
       </c>
-      <c r="I413" s="8">
+      <c r="I413" s="7">
         <v>100.9789</v>
       </c>
-      <c r="J413" s="14">
+      <c r="J413" s="13">
         <v>412</v>
       </c>
     </row>
@@ -15729,10 +15793,10 @@
       <c r="H414">
         <v>5</v>
       </c>
-      <c r="I414" s="8">
+      <c r="I414" s="7">
         <v>1948.1394</v>
       </c>
-      <c r="J414" s="14">
+      <c r="J414" s="13">
         <v>413</v>
       </c>
     </row>
@@ -15762,10 +15826,10 @@
       <c r="H415">
         <v>10</v>
       </c>
-      <c r="I415" s="8">
+      <c r="I415" s="7">
         <v>1846.2733800000001</v>
       </c>
-      <c r="J415" s="14">
+      <c r="J415" s="13">
         <v>414</v>
       </c>
     </row>
@@ -15795,10 +15859,10 @@
       <c r="H416">
         <v>10</v>
       </c>
-      <c r="I416" s="8">
+      <c r="I416" s="7">
         <v>1527.31458</v>
       </c>
-      <c r="J416" s="14">
+      <c r="J416" s="13">
         <v>415</v>
       </c>
     </row>
@@ -15828,10 +15892,10 @@
       <c r="H417">
         <v>20</v>
       </c>
-      <c r="I417" s="8">
+      <c r="I417" s="7">
         <v>1088.57</v>
       </c>
-      <c r="J417" s="14">
+      <c r="J417" s="13">
         <v>416</v>
       </c>
     </row>
@@ -15861,10 +15925,10 @@
       <c r="H418">
         <v>50</v>
       </c>
-      <c r="I418" s="8">
+      <c r="I418" s="7">
         <v>479.82</v>
       </c>
-      <c r="J418" s="14">
+      <c r="J418" s="13">
         <v>417</v>
       </c>
     </row>
@@ -15894,10 +15958,10 @@
       <c r="H419">
         <v>400</v>
       </c>
-      <c r="I419" s="8">
+      <c r="I419" s="7">
         <v>98.02</v>
       </c>
-      <c r="J419" s="14">
+      <c r="J419" s="13">
         <v>418</v>
       </c>
     </row>
@@ -15927,10 +15991,10 @@
       <c r="H420">
         <v>1</v>
       </c>
-      <c r="I420" s="8">
+      <c r="I420" s="7">
         <v>784.71119999999996</v>
       </c>
-      <c r="J420" s="14">
+      <c r="J420" s="13">
         <v>419</v>
       </c>
     </row>
@@ -15960,10 +16024,10 @@
       <c r="H421">
         <v>1</v>
       </c>
-      <c r="I421" s="8">
+      <c r="I421" s="7">
         <v>346.57830000000001</v>
       </c>
-      <c r="J421" s="14">
+      <c r="J421" s="13">
         <v>420</v>
       </c>
     </row>
@@ -15993,10 +16057,10 @@
       <c r="H422">
         <v>1</v>
       </c>
-      <c r="I422" s="8">
+      <c r="I422" s="7">
         <v>813.12660000000005</v>
       </c>
-      <c r="J422" s="14">
+      <c r="J422" s="13">
         <v>421</v>
       </c>
     </row>
@@ -16026,10 +16090,10 @@
       <c r="H423">
         <v>1</v>
       </c>
-      <c r="I423" s="8">
+      <c r="I423" s="7">
         <v>1197.8279</v>
       </c>
-      <c r="J423" s="14">
+      <c r="J423" s="13">
         <v>422</v>
       </c>
     </row>
@@ -16059,10 +16123,10 @@
       <c r="H424">
         <v>1</v>
       </c>
-      <c r="I424" s="8">
+      <c r="I424" s="7">
         <v>1915.1486</v>
       </c>
-      <c r="J424" s="14">
+      <c r="J424" s="13">
         <v>423</v>
       </c>
     </row>
@@ -16092,10 +16156,10 @@
       <c r="H425">
         <v>1</v>
       </c>
-      <c r="I425" s="8">
+      <c r="I425" s="7">
         <v>258.68669999999997</v>
       </c>
-      <c r="J425" s="14">
+      <c r="J425" s="13">
         <v>424</v>
       </c>
     </row>
@@ -16125,10 +16189,10 @@
       <c r="H426">
         <v>1</v>
       </c>
-      <c r="I426" s="8">
+      <c r="I426" s="7">
         <v>343.1574</v>
       </c>
-      <c r="J426" s="14">
+      <c r="J426" s="13">
         <v>425</v>
       </c>
     </row>
@@ -16158,10 +16222,10 @@
       <c r="H427">
         <v>1</v>
       </c>
-      <c r="I427" s="8">
+      <c r="I427" s="7">
         <v>0</v>
       </c>
-      <c r="J427" s="14">
+      <c r="J427" s="13">
         <v>426</v>
       </c>
     </row>
@@ -16191,10 +16255,10 @@
       <c r="H428">
         <v>1</v>
       </c>
-      <c r="I428" s="8">
+      <c r="I428" s="7">
         <v>333.14</v>
       </c>
-      <c r="J428" s="14">
+      <c r="J428" s="13">
         <v>427</v>
       </c>
     </row>
@@ -16224,10 +16288,10 @@
       <c r="H429">
         <v>1</v>
       </c>
-      <c r="I429" s="8">
+      <c r="I429" s="7">
         <v>284.22289999999998</v>
       </c>
-      <c r="J429" s="14">
+      <c r="J429" s="13">
         <v>428</v>
       </c>
     </row>
@@ -16257,10 +16321,10 @@
       <c r="H430">
         <v>1</v>
       </c>
-      <c r="I430" s="8">
+      <c r="I430" s="7">
         <v>461.49020000000002</v>
       </c>
-      <c r="J430" s="14">
+      <c r="J430" s="13">
         <v>429</v>
       </c>
     </row>
@@ -16290,10 +16354,10 @@
       <c r="H431">
         <v>1</v>
       </c>
-      <c r="I431" s="8">
+      <c r="I431" s="7">
         <v>0</v>
       </c>
-      <c r="J431" s="14">
+      <c r="J431" s="13">
         <v>430</v>
       </c>
     </row>
@@ -16323,10 +16387,10 @@
       <c r="H432">
         <v>1</v>
       </c>
-      <c r="I432" s="8">
+      <c r="I432" s="7">
         <v>94.651399999999995</v>
       </c>
-      <c r="J432" s="14">
+      <c r="J432" s="13">
         <v>431</v>
       </c>
     </row>
@@ -16356,10 +16420,10 @@
       <c r="H433">
         <v>1</v>
       </c>
-      <c r="I433" s="8">
+      <c r="I433" s="7">
         <v>277.62529999999998</v>
       </c>
-      <c r="J433" s="14">
+      <c r="J433" s="13">
         <v>432</v>
       </c>
     </row>
@@ -16389,10 +16453,10 @@
       <c r="H434">
         <v>1</v>
       </c>
-      <c r="I434" s="8">
+      <c r="I434" s="7">
         <v>334.10469999999998</v>
       </c>
-      <c r="J434" s="14">
+      <c r="J434" s="13">
         <v>433</v>
       </c>
     </row>
@@ -16422,10 +16486,10 @@
       <c r="H435">
         <v>1</v>
       </c>
-      <c r="I435" s="8">
+      <c r="I435" s="7">
         <v>187.82820000000001</v>
       </c>
-      <c r="J435" s="14">
+      <c r="J435" s="13">
         <v>434</v>
       </c>
     </row>
@@ -16455,10 +16519,10 @@
       <c r="H436">
         <v>25</v>
       </c>
-      <c r="I436" s="8">
+      <c r="I436" s="7">
         <v>1661.621468</v>
       </c>
-      <c r="J436" s="14">
+      <c r="J436" s="13">
         <v>435</v>
       </c>
     </row>
@@ -16488,10 +16552,10 @@
       <c r="H437">
         <v>2</v>
       </c>
-      <c r="I437" s="8">
+      <c r="I437" s="7">
         <v>525.95529999999997</v>
       </c>
-      <c r="J437" s="14">
+      <c r="J437" s="13">
         <v>436</v>
       </c>
     </row>
@@ -16521,10 +16585,10 @@
       <c r="H438">
         <v>2</v>
       </c>
-      <c r="I438" s="8">
+      <c r="I438" s="7">
         <v>2966.0858499999999</v>
       </c>
-      <c r="J438" s="14">
+      <c r="J438" s="13">
         <v>437</v>
       </c>
     </row>
@@ -16554,10 +16618,10 @@
       <c r="H439">
         <v>16</v>
       </c>
-      <c r="I439" s="8">
+      <c r="I439" s="7">
         <v>67.75</v>
       </c>
-      <c r="J439" s="14">
+      <c r="J439" s="13">
         <v>438</v>
       </c>
     </row>
@@ -16587,10 +16651,10 @@
       <c r="H440">
         <v>10</v>
       </c>
-      <c r="I440" s="8">
+      <c r="I440" s="7">
         <v>527.43661999999995</v>
       </c>
-      <c r="J440" s="14">
+      <c r="J440" s="13">
         <v>439</v>
       </c>
     </row>
@@ -16620,10 +16684,10 @@
       <c r="H441">
         <v>15</v>
       </c>
-      <c r="I441" s="8">
+      <c r="I441" s="7">
         <v>355.70975333333303</v>
       </c>
-      <c r="J441" s="14">
+      <c r="J441" s="13">
         <v>440</v>
       </c>
     </row>
@@ -16653,10 +16717,10 @@
       <c r="H442">
         <v>1</v>
       </c>
-      <c r="I442" s="8">
+      <c r="I442" s="7">
         <v>2319.7919999999999</v>
       </c>
-      <c r="J442" s="14">
+      <c r="J442" s="13">
         <v>441</v>
       </c>
     </row>
@@ -16686,10 +16750,10 @@
       <c r="H443">
         <v>2</v>
       </c>
-      <c r="I443" s="8">
+      <c r="I443" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J443" s="14">
+      <c r="J443" s="13">
         <v>442</v>
       </c>
     </row>
@@ -16719,10 +16783,10 @@
       <c r="H444">
         <v>30</v>
       </c>
-      <c r="I444" s="8">
+      <c r="I444" s="7">
         <v>9.6617300000000004</v>
       </c>
-      <c r="J444" s="14">
+      <c r="J444" s="13">
         <v>443</v>
       </c>
     </row>
@@ -16752,10 +16816,10 @@
       <c r="H445">
         <v>12</v>
       </c>
-      <c r="I445" s="8">
+      <c r="I445" s="7">
         <v>6.5</v>
       </c>
-      <c r="J445" s="14">
+      <c r="J445" s="13">
         <v>444</v>
       </c>
     </row>
@@ -16785,10 +16849,10 @@
       <c r="H446">
         <v>20</v>
       </c>
-      <c r="I446" s="8">
+      <c r="I446" s="7">
         <v>6.4743550000000001</v>
       </c>
-      <c r="J446" s="14">
+      <c r="J446" s="13">
         <v>445</v>
       </c>
     </row>
@@ -16818,10 +16882,10 @@
       <c r="H447">
         <v>7</v>
       </c>
-      <c r="I447" s="8">
+      <c r="I447" s="7">
         <v>1175.1596142857099</v>
       </c>
-      <c r="J447" s="14">
+      <c r="J447" s="13">
         <v>446</v>
       </c>
     </row>
@@ -16851,10 +16915,10 @@
       <c r="H448">
         <v>7</v>
       </c>
-      <c r="I448" s="8">
+      <c r="I448" s="7">
         <v>1175.1596142857099</v>
       </c>
-      <c r="J448" s="14">
+      <c r="J448" s="13">
         <v>447</v>
       </c>
     </row>
@@ -16884,14 +16948,14 @@
       <c r="H449">
         <v>1</v>
       </c>
-      <c r="I449" s="8">
+      <c r="I449" s="7">
         <v>70.247500000000002</v>
       </c>
-      <c r="J449" s="14">
+      <c r="J449" s="13">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" hidden="1">
       <c r="A450" t="s">
         <v>10</v>
       </c>
@@ -16917,14 +16981,14 @@
       <c r="H450">
         <v>4</v>
       </c>
-      <c r="I450" s="8">
+      <c r="I450" s="7">
         <v>200.8</v>
       </c>
-      <c r="J450" s="14">
+      <c r="J450" s="13">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" hidden="1">
       <c r="A451" t="s">
         <v>10</v>
       </c>
@@ -16950,14 +17014,14 @@
       <c r="H451">
         <v>4</v>
       </c>
-      <c r="I451" s="8">
+      <c r="I451" s="7">
         <v>365.65</v>
       </c>
-      <c r="J451" s="14">
+      <c r="J451" s="13">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" hidden="1">
       <c r="A452" t="s">
         <v>10</v>
       </c>
@@ -16983,14 +17047,14 @@
       <c r="H452">
         <v>1</v>
       </c>
-      <c r="I452" s="8">
+      <c r="I452" s="7">
         <v>17</v>
       </c>
-      <c r="J452" s="14">
+      <c r="J452" s="13">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" hidden="1">
       <c r="A453" t="s">
         <v>10</v>
       </c>
@@ -17016,14 +17080,14 @@
       <c r="H453">
         <v>2</v>
       </c>
-      <c r="I453" s="8">
+      <c r="I453" s="7">
         <v>302.59115000000003</v>
       </c>
-      <c r="J453" s="14">
+      <c r="J453" s="13">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" hidden="1">
       <c r="A454" t="s">
         <v>10</v>
       </c>
@@ -17049,14 +17113,14 @@
       <c r="H454">
         <v>2</v>
       </c>
-      <c r="I454" s="8">
+      <c r="I454" s="7">
         <v>63.039000000000001</v>
       </c>
-      <c r="J454" s="14">
+      <c r="J454" s="13">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" hidden="1">
       <c r="A455" t="s">
         <v>10</v>
       </c>
@@ -17082,14 +17146,14 @@
       <c r="H455">
         <v>10</v>
       </c>
-      <c r="I455" s="8">
+      <c r="I455" s="7">
         <v>1846.8784800000001</v>
       </c>
-      <c r="J455" s="14">
+      <c r="J455" s="13">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" hidden="1">
       <c r="A456" t="s">
         <v>10</v>
       </c>
@@ -17115,14 +17179,14 @@
       <c r="H456">
         <v>240</v>
       </c>
-      <c r="I456" s="8">
+      <c r="I456" s="7">
         <v>384.19</v>
       </c>
-      <c r="J456" s="14">
+      <c r="J456" s="13">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" hidden="1">
       <c r="A457" t="s">
         <v>10</v>
       </c>
@@ -17148,14 +17212,14 @@
       <c r="H457">
         <v>300</v>
       </c>
-      <c r="I457" s="8">
+      <c r="I457" s="7">
         <v>98.02</v>
       </c>
-      <c r="J457" s="14">
+      <c r="J457" s="13">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" hidden="1">
       <c r="A458" t="s">
         <v>10</v>
       </c>
@@ -17181,14 +17245,14 @@
       <c r="H458">
         <v>10</v>
       </c>
-      <c r="I458" s="8">
+      <c r="I458" s="7">
         <v>1964.36068</v>
       </c>
-      <c r="J458" s="14">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="459" spans="1:10">
+      <c r="J458" s="13">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" hidden="1">
       <c r="A459" t="s">
         <v>10</v>
       </c>
@@ -17214,14 +17278,14 @@
       <c r="H459">
         <v>76</v>
       </c>
-      <c r="I459" s="8">
+      <c r="I459" s="7">
         <v>1095.68</v>
       </c>
-      <c r="J459" s="14">
+      <c r="J459" s="13">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" hidden="1">
       <c r="A460" t="s">
         <v>10</v>
       </c>
@@ -17244,17 +17308,17 @@
       <c r="G460" t="s">
         <v>79</v>
       </c>
-      <c r="H460" s="9">
+      <c r="H460" s="8">
         <v>2</v>
       </c>
-      <c r="I460" s="10">
+      <c r="I460" s="9">
         <v>639.82000000000005</v>
       </c>
-      <c r="J460" s="14">
+      <c r="J460" s="13">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" hidden="1">
       <c r="A461" t="s">
         <v>10</v>
       </c>
@@ -17280,14 +17344,14 @@
       <c r="H461">
         <v>12</v>
       </c>
-      <c r="I461" s="8">
+      <c r="I461" s="7">
         <v>1041.01</v>
       </c>
-      <c r="J461" s="14">
+      <c r="J461" s="13">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" hidden="1">
       <c r="A462" t="s">
         <v>10</v>
       </c>
@@ -17313,14 +17377,14 @@
       <c r="H462">
         <v>28</v>
       </c>
-      <c r="I462" s="8">
+      <c r="I462" s="7">
         <v>551.29999999999995</v>
       </c>
-      <c r="J462" s="14">
+      <c r="J462" s="13">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" hidden="1">
       <c r="A463" t="s">
         <v>10</v>
       </c>
@@ -17346,14 +17410,14 @@
       <c r="H463">
         <v>10</v>
       </c>
-      <c r="I463" s="8">
+      <c r="I463" s="7">
         <v>638.1</v>
       </c>
-      <c r="J463" s="14">
+      <c r="J463" s="13">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" hidden="1">
       <c r="A464" t="s">
         <v>10</v>
       </c>
@@ -17379,14 +17443,14 @@
       <c r="H464">
         <v>3</v>
       </c>
-      <c r="I464" s="8">
+      <c r="I464" s="7">
         <v>2526.42</v>
       </c>
-      <c r="J464" s="14">
+      <c r="J464" s="13">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" hidden="1">
       <c r="A465" t="s">
         <v>10</v>
       </c>
@@ -17412,14 +17476,14 @@
       <c r="H465">
         <v>1</v>
       </c>
-      <c r="I465" s="8">
+      <c r="I465" s="7">
         <v>1745.0479</v>
       </c>
-      <c r="J465" s="14">
+      <c r="J465" s="13">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" t="s">
         <v>10</v>
       </c>
@@ -17445,14 +17509,14 @@
       <c r="H466">
         <v>1</v>
       </c>
-      <c r="I466" s="8">
+      <c r="I466" s="7">
         <v>709.57299999999998</v>
       </c>
-      <c r="J466" s="14">
+      <c r="J466" s="13">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" t="s">
         <v>10</v>
       </c>
@@ -17478,14 +17542,14 @@
       <c r="H467">
         <v>2</v>
       </c>
-      <c r="I467" s="8">
+      <c r="I467" s="7">
         <v>1797.18995</v>
       </c>
-      <c r="J467" s="14">
+      <c r="J467" s="13">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" hidden="1">
       <c r="A468" t="s">
         <v>10</v>
       </c>
@@ -17511,14 +17575,14 @@
       <c r="H468">
         <v>2</v>
       </c>
-      <c r="I468" s="8">
+      <c r="I468" s="7">
         <v>332.36669999999998</v>
       </c>
-      <c r="J468" s="14">
+      <c r="J468" s="13">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" hidden="1">
       <c r="A469" t="s">
         <v>10</v>
       </c>
@@ -17544,14 +17608,14 @@
       <c r="H469">
         <v>13</v>
       </c>
-      <c r="I469" s="8">
+      <c r="I469" s="7">
         <v>287.00998461538501</v>
       </c>
-      <c r="J469" s="14">
+      <c r="J469" s="13">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" hidden="1">
       <c r="A470" t="s">
         <v>10</v>
       </c>
@@ -17577,14 +17641,14 @@
       <c r="H470">
         <v>20</v>
       </c>
-      <c r="I470" s="8">
+      <c r="I470" s="7">
         <v>997.74033999999995</v>
       </c>
-      <c r="J470" s="14">
+      <c r="J470" s="13">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" hidden="1">
       <c r="A471" t="s">
         <v>10</v>
       </c>
@@ -17610,14 +17674,14 @@
       <c r="H471">
         <v>2</v>
       </c>
-      <c r="I471" s="8">
+      <c r="I471" s="7">
         <v>845.54835000000003</v>
       </c>
-      <c r="J471" s="14">
+      <c r="J471" s="13">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" hidden="1">
       <c r="A472" t="s">
         <v>10</v>
       </c>
@@ -17643,14 +17707,14 @@
       <c r="H472">
         <v>2</v>
       </c>
-      <c r="I472" s="8">
+      <c r="I472" s="7">
         <v>98.489649999999997</v>
       </c>
-      <c r="J472" s="14">
+      <c r="J472" s="13">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" hidden="1">
       <c r="A473" t="s">
         <v>10</v>
       </c>
@@ -17676,14 +17740,14 @@
       <c r="H473">
         <v>68</v>
       </c>
-      <c r="I473" s="8">
+      <c r="I473" s="7">
         <v>1073.2</v>
       </c>
-      <c r="J473" s="14">
+      <c r="J473" s="13">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" hidden="1">
       <c r="A474" t="s">
         <v>10</v>
       </c>
@@ -17709,14 +17773,14 @@
       <c r="H474">
         <v>79</v>
       </c>
-      <c r="I474" s="8">
+      <c r="I474" s="7">
         <v>90.42</v>
       </c>
-      <c r="J474" s="14">
+      <c r="J474" s="13">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" hidden="1">
       <c r="A475" t="s">
         <v>10</v>
       </c>
@@ -17742,14 +17806,14 @@
       <c r="H475">
         <v>1</v>
       </c>
-      <c r="I475" s="8">
+      <c r="I475" s="7">
         <v>27.4833</v>
       </c>
-      <c r="J475" s="14">
+      <c r="J475" s="13">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" hidden="1">
       <c r="A476" t="s">
         <v>10</v>
       </c>
@@ -17775,14 +17839,14 @@
       <c r="H476">
         <v>2</v>
       </c>
-      <c r="I476" s="8">
+      <c r="I476" s="7">
         <v>467.84870000000001</v>
       </c>
-      <c r="J476" s="14">
+      <c r="J476" s="13">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" hidden="1">
       <c r="A477" t="s">
         <v>10</v>
       </c>
@@ -17808,14 +17872,14 @@
       <c r="H477">
         <v>1</v>
       </c>
-      <c r="I477" s="8">
+      <c r="I477" s="7">
         <v>34.487499999999997</v>
       </c>
-      <c r="J477" s="14">
+      <c r="J477" s="13">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" hidden="1">
       <c r="A478" t="s">
         <v>10</v>
       </c>
@@ -17841,14 +17905,14 @@
       <c r="H478">
         <v>2</v>
       </c>
-      <c r="I478" s="8">
+      <c r="I478" s="7">
         <v>99.919600000000003</v>
       </c>
-      <c r="J478" s="14">
+      <c r="J478" s="13">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" hidden="1">
       <c r="A479" t="s">
         <v>10</v>
       </c>
@@ -17874,24 +17938,24 @@
       <c r="H479">
         <v>2</v>
       </c>
-      <c r="I479" s="8">
+      <c r="I479" s="7">
         <v>224.9744</v>
       </c>
-      <c r="J479" s="14">
+      <c r="J479" s="13">
         <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:11">
-      <c r="H480" s="9"/>
-      <c r="I480" s="10"/>
-      <c r="J480" s="15"/>
-      <c r="K480" s="9"/>
+      <c r="H480" s="8"/>
+      <c r="I480" s="21"/>
+      <c r="J480" s="14"/>
+      <c r="K480" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J479">
     <filterColumn colId="3">
       <filters>
-        <dateGroupItem year="2025" month="3" day="31" dateTimeGrouping="day"/>
+        <dateGroupItem year="2025" month="3" day="21" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
